--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663645.2803676608</v>
+        <v>661175.9031980778</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7317847.948514872</v>
+        <v>7317847.948514873</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673423</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.122510992439955</v>
       </c>
       <c r="F2" t="n">
-        <v>27.59002526031614</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>24.63929263985502</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -735,73 +735,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>23.55470292302859</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>19.72731862540289</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.361305680128709</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.59002526031568</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>27.59002526031568</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2.122510992439956</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S6" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U6" t="n">
-        <v>24.30129424928604</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.72731862540289</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X7" t="n">
-        <v>25.0478520598362</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,70 +1136,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>16.93162886246722</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16.69283417477805</v>
       </c>
     </row>
     <row r="9">
@@ -1221,61 +1221,61 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H9" t="n">
-        <v>38.12502610536669</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,40 +1306,40 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22.26949182588285</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>295.4301597209396</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.1354827051286</v>
       </c>
       <c r="H11" t="n">
-        <v>296.7969037927885</v>
+        <v>185.3510177720156</v>
       </c>
       <c r="I11" t="n">
         <v>49.81779850763166</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13.94880357397179</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1216923135604</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>93.24344843110184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T13" t="n">
         <v>219.9586356909884</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>46.39213619732354</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710061</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13.94880357397152</v>
       </c>
       <c r="D16" t="n">
-        <v>133.8845649303765</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1216923135604</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.24344843110184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U16" t="n">
         <v>286.217068244951</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>7.883775890941877</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>206.3471041532948</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>296.7969037927885</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81779850763166</v>
+        <v>49.81779850763037</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1216923135604</v>
+        <v>7.883775890941223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T22" t="n">
-        <v>133.8845649303772</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U22" t="n">
         <v>286.217068244951</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.6075113264339</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>93.24344843110184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>191.4400228999703</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U25" t="n">
         <v>286.217068244951</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>168.8234320063318</v>
+        <v>175.1305969895692</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1216923135604</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>191.4400228999703</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.9586356909884</v>
       </c>
       <c r="U28" t="n">
-        <v>209.9430197357464</v>
+        <v>286.217068244951</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>187.715756072879</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.43957883491565</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>107.1922520050738</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>378.4540573608757</v>
+        <v>378.4540573608755</v>
       </c>
       <c r="C32" t="n">
-        <v>360.9931074684026</v>
+        <v>360.9931074684025</v>
       </c>
       <c r="D32" t="n">
-        <v>350.403257318078</v>
+        <v>350.4032573180779</v>
       </c>
       <c r="E32" t="n">
-        <v>377.6505857696569</v>
+        <v>377.6505857696567</v>
       </c>
       <c r="F32" t="n">
-        <v>402.5962614391065</v>
+        <v>402.5962614391064</v>
       </c>
       <c r="G32" t="n">
-        <v>406.8556984025237</v>
+        <v>406.8556984025236</v>
       </c>
       <c r="H32" t="n">
-        <v>292.5171194901835</v>
+        <v>292.5171194901834</v>
       </c>
       <c r="I32" t="n">
-        <v>45.53801420502676</v>
+        <v>45.53801420502663</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.7789663006181</v>
+        <v>109.778966300618</v>
       </c>
       <c r="T32" t="n">
-        <v>200.5739073307231</v>
+        <v>200.573907330723</v>
       </c>
       <c r="U32" t="n">
-        <v>246.7324882204311</v>
+        <v>246.732488220431</v>
       </c>
       <c r="V32" t="n">
-        <v>323.47247416753</v>
+        <v>323.4724741675299</v>
       </c>
       <c r="W32" t="n">
-        <v>344.9611844148081</v>
+        <v>344.961184414808</v>
       </c>
       <c r="X32" t="n">
-        <v>365.4513163758641</v>
+        <v>365.451316375864</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.9581543534487</v>
+        <v>381.9581543534485</v>
       </c>
     </row>
     <row r="33">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.5521958793324</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>131.9550017130166</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.1602385973654</v>
+        <v>187.1602385973653</v>
       </c>
       <c r="T34" t="n">
-        <v>172.081657222066</v>
+        <v>215.6788513883833</v>
       </c>
       <c r="U34" t="n">
-        <v>281.937283942346</v>
+        <v>281.9372839423459</v>
       </c>
       <c r="V34" t="n">
-        <v>247.8578590212231</v>
+        <v>247.857859021223</v>
       </c>
       <c r="W34" t="n">
-        <v>282.2432140339861</v>
+        <v>282.243214033986</v>
       </c>
       <c r="X34" t="n">
-        <v>221.4298710864322</v>
+        <v>221.4298710864321</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3048690494899</v>
+        <v>214.3048690494898</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>331.4218775668041</v>
+        <v>331.421877566804</v>
       </c>
       <c r="C35" t="n">
-        <v>313.9609276743311</v>
+        <v>313.960927674331</v>
       </c>
       <c r="D35" t="n">
-        <v>303.3710775240065</v>
+        <v>303.3710775240064</v>
       </c>
       <c r="E35" t="n">
-        <v>330.6184059755853</v>
+        <v>330.6184059755852</v>
       </c>
       <c r="F35" t="n">
         <v>355.5640816450349</v>
       </c>
       <c r="G35" t="n">
-        <v>359.8235186084521</v>
+        <v>359.823518608452</v>
       </c>
       <c r="H35" t="n">
-        <v>245.484939696112</v>
+        <v>245.4849396961119</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>62.7467865065465</v>
       </c>
       <c r="T35" t="n">
-        <v>153.5417275366516</v>
+        <v>153.5417275366515</v>
       </c>
       <c r="U35" t="n">
         <v>199.7003084263595</v>
@@ -3332,7 +3332,7 @@
         <v>318.4191365817925</v>
       </c>
       <c r="Y35" t="n">
-        <v>334.9259745593771</v>
+        <v>334.925974559377</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>115.9348570019513</v>
       </c>
       <c r="D37" t="n">
-        <v>97.30350892153585</v>
+        <v>97.30350892153584</v>
       </c>
       <c r="E37" t="n">
-        <v>95.12199854989267</v>
+        <v>95.12199854989265</v>
       </c>
       <c r="F37" t="n">
-        <v>94.10908392625474</v>
+        <v>94.10908392625473</v>
       </c>
       <c r="G37" t="n">
         <v>114.8097282168839</v>
       </c>
       <c r="H37" t="n">
-        <v>94.29554722975736</v>
+        <v>94.29554722975735</v>
       </c>
       <c r="I37" t="n">
-        <v>47.92395133491014</v>
+        <v>47.92395133491126</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93148433442501</v>
+        <v>41.93148433442532</v>
       </c>
       <c r="S37" t="n">
         <v>140.1280588032938</v>
       </c>
       <c r="T37" t="n">
-        <v>168.6466715943119</v>
+        <v>168.6466715943118</v>
       </c>
       <c r="U37" t="n">
-        <v>234.9051041482745</v>
+        <v>234.9051041482744</v>
       </c>
       <c r="V37" t="n">
         <v>200.8256792271515</v>
@@ -3487,7 +3487,7 @@
         <v>235.2110342399145</v>
       </c>
       <c r="X37" t="n">
-        <v>174.3976912923607</v>
+        <v>174.3976912923606</v>
       </c>
       <c r="Y37" t="n">
         <v>167.2726892554183</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>331.4218775668041</v>
+        <v>331.421877566804</v>
       </c>
       <c r="C38" t="n">
-        <v>313.9609276743311</v>
+        <v>313.960927674331</v>
       </c>
       <c r="D38" t="n">
-        <v>303.3710775240065</v>
+        <v>303.3710775240064</v>
       </c>
       <c r="E38" t="n">
-        <v>330.6184059755853</v>
+        <v>330.6184059755852</v>
       </c>
       <c r="F38" t="n">
         <v>355.5640816450349</v>
       </c>
       <c r="G38" t="n">
-        <v>359.8235186084521</v>
+        <v>359.823518608452</v>
       </c>
       <c r="H38" t="n">
         <v>245.484939696112</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.7467865065465</v>
+        <v>62.74678650654653</v>
       </c>
       <c r="T38" t="n">
-        <v>153.5417275366516</v>
+        <v>153.5417275366515</v>
       </c>
       <c r="U38" t="n">
         <v>199.7003084263595</v>
@@ -3569,7 +3569,7 @@
         <v>318.4191365817925</v>
       </c>
       <c r="Y38" t="n">
-        <v>334.9259745593771</v>
+        <v>334.925974559377</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>90.70144985872273</v>
       </c>
       <c r="I39" t="n">
-        <v>12.62921420222169</v>
+        <v>12.62921420222172</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>115.9348570019513</v>
       </c>
       <c r="D40" t="n">
-        <v>97.30350892153585</v>
+        <v>97.30350892153584</v>
       </c>
       <c r="E40" t="n">
-        <v>95.12199854989267</v>
+        <v>95.12199854989265</v>
       </c>
       <c r="F40" t="n">
-        <v>94.10908392625474</v>
+        <v>94.10908392625473</v>
       </c>
       <c r="G40" t="n">
         <v>114.8097282168839</v>
       </c>
       <c r="H40" t="n">
-        <v>94.29554722975736</v>
+        <v>94.29554722975735</v>
       </c>
       <c r="I40" t="n">
         <v>47.92395133491014</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93148433442533</v>
+        <v>41.93148433442535</v>
       </c>
       <c r="S40" t="n">
         <v>140.1280588032938</v>
       </c>
       <c r="T40" t="n">
-        <v>168.6466715943119</v>
+        <v>168.6466715943118</v>
       </c>
       <c r="U40" t="n">
-        <v>234.9051041482745</v>
+        <v>234.9051041482744</v>
       </c>
       <c r="V40" t="n">
         <v>200.8256792271515</v>
@@ -3724,7 +3724,7 @@
         <v>235.2110342399145</v>
       </c>
       <c r="X40" t="n">
-        <v>174.3976912923607</v>
+        <v>174.3976912923606</v>
       </c>
       <c r="Y40" t="n">
         <v>167.2726892554183</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.7467865065465</v>
+        <v>62.74678650654656</v>
       </c>
       <c r="T41" t="n">
         <v>153.5417275366516</v>
@@ -3898,25 +3898,25 @@
         <v>128.5200160852608</v>
       </c>
       <c r="C43" t="n">
-        <v>115.9348570019513</v>
+        <v>115.9348570019514</v>
       </c>
       <c r="D43" t="n">
-        <v>97.30350892153585</v>
+        <v>97.30350892153589</v>
       </c>
       <c r="E43" t="n">
-        <v>95.12199854989267</v>
+        <v>95.12199854989271</v>
       </c>
       <c r="F43" t="n">
-        <v>94.10908392625474</v>
+        <v>94.10908392625478</v>
       </c>
       <c r="G43" t="n">
         <v>114.8097282168839</v>
       </c>
       <c r="H43" t="n">
-        <v>94.29554722975736</v>
+        <v>94.2955472297574</v>
       </c>
       <c r="I43" t="n">
-        <v>47.92395133491081</v>
+        <v>47.92395133491019</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93148433442533</v>
+        <v>41.93148433442538</v>
       </c>
       <c r="S43" t="n">
         <v>140.1280588032938</v>
@@ -3986,10 +3986,10 @@
         <v>330.6184059755853</v>
       </c>
       <c r="F44" t="n">
-        <v>355.5640816450349</v>
+        <v>355.564081645035</v>
       </c>
       <c r="G44" t="n">
-        <v>359.8235186084521</v>
+        <v>359.8235186084522</v>
       </c>
       <c r="H44" t="n">
         <v>245.484939696112</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.7467865065465</v>
+        <v>62.74678650654656</v>
       </c>
       <c r="T44" t="n">
         <v>153.5417275366516</v>
@@ -4034,16 +4034,16 @@
         <v>199.7003084263595</v>
       </c>
       <c r="V44" t="n">
-        <v>276.4402943734584</v>
+        <v>276.4402943734585</v>
       </c>
       <c r="W44" t="n">
-        <v>297.9290046207365</v>
+        <v>297.9290046207366</v>
       </c>
       <c r="X44" t="n">
-        <v>318.4191365817925</v>
+        <v>318.4191365817926</v>
       </c>
       <c r="Y44" t="n">
-        <v>334.9259745593771</v>
+        <v>334.9259745593772</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>128.5200160852608</v>
       </c>
       <c r="C46" t="n">
-        <v>115.9348570019513</v>
+        <v>115.9348570019514</v>
       </c>
       <c r="D46" t="n">
-        <v>97.30350892153585</v>
+        <v>97.30350892153589</v>
       </c>
       <c r="E46" t="n">
-        <v>95.12199854989267</v>
+        <v>95.12199854989271</v>
       </c>
       <c r="F46" t="n">
-        <v>94.10908392625474</v>
+        <v>94.10908392625478</v>
       </c>
       <c r="G46" t="n">
         <v>114.8097282168839</v>
       </c>
       <c r="H46" t="n">
-        <v>94.29554722975736</v>
+        <v>94.2955472297574</v>
       </c>
       <c r="I46" t="n">
-        <v>47.92395133491014</v>
+        <v>47.92395133490902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93148433442533</v>
+        <v>41.93148433442538</v>
       </c>
       <c r="S46" t="n">
         <v>140.1280588032938</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C2" t="n">
-        <v>57.6032142734149</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D2" t="n">
-        <v>57.6032142734149</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E2" t="n">
-        <v>57.6032142734149</v>
+        <v>52.47872577553503</v>
       </c>
       <c r="F2" t="n">
-        <v>29.73450188925718</v>
+        <v>45.53322502633155</v>
       </c>
       <c r="G2" t="n">
-        <v>14.27719126790864</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H2" t="n">
-        <v>14.27719126790864</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J2" t="n">
         <v>2.207202020825291</v>
@@ -4334,16 +4334,16 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M2" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N2" t="n">
-        <v>56.83545203625125</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O2" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P2" t="n">
         <v>110.3601010412646</v>
@@ -4358,22 +4358,22 @@
         <v>82.49138865710684</v>
       </c>
       <c r="T2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y2" t="n">
-        <v>57.6032142734149</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.56747182608416</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C3" t="n">
-        <v>58.69875944192644</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D3" t="n">
-        <v>58.69875944192644</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E3" t="n">
-        <v>30.83004705776872</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F3" t="n">
-        <v>30.83004705776872</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G3" t="n">
-        <v>30.83004705776872</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H3" t="n">
-        <v>2.961334673611005</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J3" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L3" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M3" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N3" t="n">
-        <v>56.83545203625125</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O3" t="n">
-        <v>84.14957704396423</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P3" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q3" t="n">
         <v>110.3601010412646</v>
@@ -4437,22 +4437,22 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T3" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X3" t="n">
-        <v>86.56747182608416</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.56747182608416</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4504,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S4" t="n">
-        <v>22.13378649092923</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T4" t="n">
-        <v>22.13378649092923</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U4" t="n">
-        <v>2.207202020825291</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V4" t="n">
-        <v>2.207202020825291</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W4" t="n">
         <v>2.207202020825291</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.88332842038039</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C5" t="n">
-        <v>70.01461603622313</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D5" t="n">
-        <v>70.01461603622313</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E5" t="n">
-        <v>70.01461603622313</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F5" t="n">
-        <v>42.14590365206587</v>
+        <v>47.67717552374565</v>
       </c>
       <c r="G5" t="n">
-        <v>14.27719126790861</v>
+        <v>32.21986490239711</v>
       </c>
       <c r="H5" t="n">
-        <v>14.27719126790861</v>
+        <v>4.351152518239388</v>
       </c>
       <c r="I5" t="n">
-        <v>14.27719126790861</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J5" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>28.41772601812515</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L5" t="n">
-        <v>55.73185102583768</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M5" t="n">
-        <v>83.0459760335502</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N5" t="n">
-        <v>110.3601010412627</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O5" t="n">
-        <v>110.3601010412627</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P5" t="n">
-        <v>110.3601010412627</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V5" t="n">
-        <v>100.2684856730357</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W5" t="n">
-        <v>100.2684856730357</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X5" t="n">
-        <v>100.2684856730357</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y5" t="n">
-        <v>100.2684856730357</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.07591440498251</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C6" t="n">
-        <v>30.07591440498251</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J6" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825255</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>29.52132702853778</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M6" t="n">
-        <v>55.73185102583768</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N6" t="n">
-        <v>55.73185102583768</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O6" t="n">
-        <v>55.73185102583768</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P6" t="n">
-        <v>83.0459760335502</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.3601010412627</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412627</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S6" t="n">
-        <v>82.49138865710547</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T6" t="n">
-        <v>82.49138865710547</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U6" t="n">
-        <v>57.94462678913978</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V6" t="n">
-        <v>57.94462678913978</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W6" t="n">
-        <v>57.94462678913978</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X6" t="n">
-        <v>57.94462678913978</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y6" t="n">
-        <v>30.07591440498251</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J7" t="n">
-        <v>24.70163820858571</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K7" t="n">
-        <v>2.207202020825255</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L7" t="n">
-        <v>29.52132702853823</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M7" t="n">
-        <v>56.83545203625076</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N7" t="n">
-        <v>84.14957704396329</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O7" t="n">
-        <v>108.4888536788626</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434014</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.87121125924418</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="R7" t="n">
-        <v>77.87121125924418</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S7" t="n">
-        <v>77.87121125924418</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T7" t="n">
-        <v>77.87121125924418</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U7" t="n">
-        <v>77.87121125924418</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V7" t="n">
-        <v>77.87121125924418</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W7" t="n">
-        <v>77.87121125924418</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.57035059274297</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>70.511337059101</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>70.511337059101</v>
       </c>
       <c r="D8" t="n">
-        <v>77.28117035226589</v>
+        <v>70.511337059101</v>
       </c>
       <c r="E8" t="n">
-        <v>77.28117035226589</v>
+        <v>70.511337059101</v>
       </c>
       <c r="F8" t="n">
-        <v>60.17851493563234</v>
+        <v>63.56583630989752</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60056303742164</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P8" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>70.511337059101</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O9" t="n">
+        <v>90.91227510121089</v>
+      </c>
+      <c r="P9" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="P9" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T9" t="n">
-        <v>131.9507376187037</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U9" t="n">
-        <v>131.9507376187037</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C10" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>90.73598234693722</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>70.60296187630945</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
         <v>3.530573790338288</v>
@@ -4978,34 +4978,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R10" t="n">
-        <v>90.73598234693722</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="T10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y10" t="n">
-        <v>90.73598234693722</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2270.438120644551</v>
+        <v>2270.43812064455</v>
       </c>
       <c r="C11" t="n">
-        <v>1901.475603704139</v>
+        <v>1901.475603704138</v>
       </c>
       <c r="D11" t="n">
-        <v>1543.209905097389</v>
+        <v>1543.209905097388</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.421652499145</v>
+        <v>1157.421652499144</v>
       </c>
       <c r="F11" t="n">
-        <v>859.0073497507209</v>
+        <v>746.4357477095361</v>
       </c>
       <c r="G11" t="n">
-        <v>443.7189833819041</v>
+        <v>331.1473813407193</v>
       </c>
       <c r="H11" t="n">
         <v>143.9241310659561</v>
       </c>
       <c r="I11" t="n">
-        <v>93.60312247238878</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J11" t="n">
         <v>431.9269635128007</v>
@@ -5045,25 +5045,25 @@
         <v>1059.731504071699</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.370576047206</v>
+        <v>1890.855178452152</v>
       </c>
       <c r="M11" t="n">
-        <v>1973.743951498178</v>
+        <v>2832.246952061028</v>
       </c>
       <c r="N11" t="n">
-        <v>2606.514174353205</v>
+        <v>3341.265976048017</v>
       </c>
       <c r="O11" t="n">
-        <v>3450.823322826635</v>
+        <v>3808.582945071329</v>
       </c>
       <c r="P11" t="n">
-        <v>4133.747264358653</v>
+        <v>4408.99836078621</v>
       </c>
       <c r="Q11" t="n">
-        <v>4569.372943621699</v>
+        <v>4634.43219929595</v>
       </c>
       <c r="R11" t="n">
-        <v>4680.156123619438</v>
+        <v>4680.156123619437</v>
       </c>
       <c r="S11" t="n">
         <v>4564.945264424263</v>
@@ -5072,19 +5072,19 @@
         <v>4358.022343582517</v>
       </c>
       <c r="U11" t="n">
-        <v>4104.474593559249</v>
+        <v>4104.474593559248</v>
       </c>
       <c r="V11" t="n">
-        <v>3773.411706215679</v>
+        <v>3773.411706215678</v>
       </c>
       <c r="W11" t="n">
         <v>3420.643050945564</v>
       </c>
       <c r="X11" t="n">
-        <v>3047.177292684485</v>
+        <v>3047.177292684484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.037960708673</v>
+        <v>2657.037960708672</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>106.3599044948349</v>
       </c>
       <c r="I12" t="n">
-        <v>93.60312247238878</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J12" t="n">
-        <v>176.5829797757075</v>
+        <v>301.4131047627122</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5635974692168</v>
+        <v>521.3937224562214</v>
       </c>
       <c r="L12" t="n">
-        <v>910.8494864558629</v>
+        <v>863.50735139466</v>
       </c>
       <c r="M12" t="n">
-        <v>1329.436823141888</v>
+        <v>1282.094688080685</v>
       </c>
       <c r="N12" t="n">
-        <v>1773.511566000246</v>
+        <v>1726.169430939043</v>
       </c>
       <c r="O12" t="n">
-        <v>2157.533403473897</v>
+        <v>2110.191268412694</v>
       </c>
       <c r="P12" t="n">
         <v>2446.411717766461</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261.4028116780053</v>
+        <v>107.6928230521582</v>
       </c>
       <c r="C13" t="n">
-        <v>261.4028116780053</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="D13" t="n">
-        <v>261.4028116780053</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="E13" t="n">
-        <v>261.4028116780053</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="F13" t="n">
-        <v>261.4028116780053</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="G13" t="n">
-        <v>93.60312247238878</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="H13" t="n">
-        <v>93.60312247238878</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="I13" t="n">
-        <v>93.60312247238878</v>
+        <v>93.60312247238875</v>
       </c>
       <c r="J13" t="n">
         <v>132.0145422904558</v>
@@ -5203,10 +5203,10 @@
         <v>324.9731412870447</v>
       </c>
       <c r="L13" t="n">
-        <v>627.4201492851723</v>
+        <v>627.4201492851724</v>
       </c>
       <c r="M13" t="n">
-        <v>956.6972361140411</v>
+        <v>956.6972361140412</v>
       </c>
       <c r="N13" t="n">
         <v>1283.579466210449</v>
@@ -5224,25 +5224,25 @@
         <v>1766.094847362565</v>
       </c>
       <c r="S13" t="n">
-        <v>1766.094847362565</v>
+        <v>1572.721086857545</v>
       </c>
       <c r="T13" t="n">
-        <v>1543.914407270658</v>
+        <v>1350.540646765637</v>
       </c>
       <c r="U13" t="n">
-        <v>1254.806257528283</v>
+        <v>1061.432497023263</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.121769322396</v>
+        <v>806.7480088173759</v>
       </c>
       <c r="W13" t="n">
-        <v>710.7045992854355</v>
+        <v>517.3308387804152</v>
       </c>
       <c r="X13" t="n">
-        <v>663.8438556517754</v>
+        <v>289.3412878823979</v>
       </c>
       <c r="Y13" t="n">
-        <v>443.051276508245</v>
+        <v>289.3412878823979</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2385.307102319228</v>
+        <v>2385.307102319227</v>
       </c>
       <c r="C14" t="n">
-        <v>2016.344585378816</v>
+        <v>2016.344585378817</v>
       </c>
       <c r="D14" t="n">
         <v>1658.078886772066</v>
       </c>
       <c r="E14" t="n">
-        <v>1272.290634173821</v>
+        <v>1272.290634173822</v>
       </c>
       <c r="F14" t="n">
-        <v>861.3047293842139</v>
+        <v>861.3047293842144</v>
       </c>
       <c r="G14" t="n">
-        <v>446.0163630153975</v>
+        <v>446.0163630153976</v>
       </c>
       <c r="H14" t="n">
-        <v>146.2215106994497</v>
+        <v>146.2215106994496</v>
       </c>
       <c r="I14" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J14" t="n">
-        <v>434.2243431462942</v>
+        <v>266.8186941259412</v>
       </c>
       <c r="K14" t="n">
-        <v>1062.028883705193</v>
+        <v>894.6232346848398</v>
       </c>
       <c r="L14" t="n">
-        <v>1479.6679556807</v>
+        <v>1312.262306660346</v>
       </c>
       <c r="M14" t="n">
-        <v>1976.041331131672</v>
+        <v>2212.364132040892</v>
       </c>
       <c r="N14" t="n">
-        <v>2721.383156027881</v>
+        <v>2721.38315602788</v>
       </c>
       <c r="O14" t="n">
-        <v>3565.692304501311</v>
+        <v>3565.69230450131</v>
       </c>
       <c r="P14" t="n">
-        <v>4248.61624603333</v>
+        <v>4248.616246033329</v>
       </c>
       <c r="Q14" t="n">
         <v>4684.241925296375</v>
       </c>
       <c r="R14" t="n">
-        <v>4795.025105294115</v>
+        <v>4795.025105294114</v>
       </c>
       <c r="S14" t="n">
         <v>4679.814246098939</v>
@@ -5312,16 +5312,16 @@
         <v>4219.343575233926</v>
       </c>
       <c r="V14" t="n">
-        <v>3888.280687890356</v>
+        <v>3888.280687890355</v>
       </c>
       <c r="W14" t="n">
-        <v>3535.512032620241</v>
+        <v>3535.51203262024</v>
       </c>
       <c r="X14" t="n">
-        <v>3162.046274359162</v>
+        <v>3162.046274359161</v>
       </c>
       <c r="Y14" t="n">
-        <v>2771.90694238335</v>
+        <v>2771.906942383349</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E15" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F15" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G15" t="n">
         <v>200.2749102482504</v>
@@ -5352,28 +5352,28 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I15" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J15" t="n">
-        <v>303.7104843962057</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K15" t="n">
-        <v>523.6911020897151</v>
+        <v>398.8609771027103</v>
       </c>
       <c r="L15" t="n">
-        <v>865.8047310281536</v>
+        <v>740.9746060411489</v>
       </c>
       <c r="M15" t="n">
-        <v>1284.392067714179</v>
+        <v>1159.561942727174</v>
       </c>
       <c r="N15" t="n">
-        <v>1728.466810572536</v>
+        <v>1603.636685585532</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.488648046188</v>
+        <v>2159.830783107391</v>
       </c>
       <c r="P15" t="n">
-        <v>2401.366962338752</v>
+        <v>2448.709097399955</v>
       </c>
       <c r="Q15" t="n">
         <v>2591.897403837273</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>398.9371255846065</v>
+        <v>109.9902026856515</v>
       </c>
       <c r="C16" t="n">
-        <v>398.9371255846065</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="D16" t="n">
-        <v>263.7001913114989</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="E16" t="n">
-        <v>263.7001913114989</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="F16" t="n">
-        <v>263.7001913114988</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="G16" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="H16" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="I16" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J16" t="n">
         <v>134.3119219239493</v>
@@ -5443,7 +5443,7 @@
         <v>629.7175289186658</v>
       </c>
       <c r="M16" t="n">
-        <v>958.9946157475346</v>
+        <v>958.9946157475347</v>
       </c>
       <c r="N16" t="n">
         <v>1285.876845843943</v>
@@ -5458,28 +5458,28 @@
         <v>1862.577528441616</v>
       </c>
       <c r="R16" t="n">
-        <v>1862.577528441616</v>
+        <v>1768.392226996059</v>
       </c>
       <c r="S16" t="n">
-        <v>1862.577528441616</v>
+        <v>1575.018466491038</v>
       </c>
       <c r="T16" t="n">
-        <v>1862.577528441616</v>
+        <v>1352.838026399131</v>
       </c>
       <c r="U16" t="n">
-        <v>1573.469378699241</v>
+        <v>1063.729876656756</v>
       </c>
       <c r="V16" t="n">
-        <v>1318.784890493354</v>
+        <v>809.045388450869</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.367720456394</v>
+        <v>519.6282184139085</v>
       </c>
       <c r="X16" t="n">
-        <v>801.3781695583764</v>
+        <v>291.6386675158912</v>
       </c>
       <c r="Y16" t="n">
-        <v>580.5855904148463</v>
+        <v>291.6386675158912</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2385.307102319227</v>
+        <v>2385.307102319226</v>
       </c>
       <c r="C17" t="n">
-        <v>2016.344585378816</v>
+        <v>2016.344585378817</v>
       </c>
       <c r="D17" t="n">
-        <v>1658.078886772065</v>
+        <v>1658.078886772066</v>
       </c>
       <c r="E17" t="n">
-        <v>1272.290634173821</v>
+        <v>1272.290634173822</v>
       </c>
       <c r="F17" t="n">
-        <v>861.3047293842135</v>
+        <v>861.3047293842144</v>
       </c>
       <c r="G17" t="n">
-        <v>446.0163630153967</v>
+        <v>446.0163630153976</v>
       </c>
       <c r="H17" t="n">
-        <v>146.2215106994497</v>
+        <v>146.2215106994496</v>
       </c>
       <c r="I17" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J17" t="n">
         <v>434.2243431462942</v>
       </c>
       <c r="K17" t="n">
-        <v>741.1249252597397</v>
+        <v>1062.028883705193</v>
       </c>
       <c r="L17" t="n">
-        <v>1283.017301422056</v>
+        <v>1799.744920275089</v>
       </c>
       <c r="M17" t="n">
-        <v>1779.390676873028</v>
+        <v>2741.136693883966</v>
       </c>
       <c r="N17" t="n">
-        <v>2721.383156027881</v>
+        <v>3250.155717870954</v>
       </c>
       <c r="O17" t="n">
-        <v>3565.692304501311</v>
+        <v>4094.464866344384</v>
       </c>
       <c r="P17" t="n">
-        <v>4248.61624603333</v>
+        <v>4458.808086786635</v>
       </c>
       <c r="Q17" t="n">
         <v>4684.241925296375</v>
       </c>
       <c r="R17" t="n">
-        <v>4795.025105294115</v>
+        <v>4795.025105294114</v>
       </c>
       <c r="S17" t="n">
-        <v>4679.81424609894</v>
+        <v>4679.814246098939</v>
       </c>
       <c r="T17" t="n">
-        <v>4472.891325257195</v>
+        <v>4472.891325257194</v>
       </c>
       <c r="U17" t="n">
-        <v>4219.343575233926</v>
+        <v>4219.343575233925</v>
       </c>
       <c r="V17" t="n">
-        <v>3888.280687890355</v>
+        <v>3888.280687890354</v>
       </c>
       <c r="W17" t="n">
-        <v>3535.512032620241</v>
+        <v>3535.51203262024</v>
       </c>
       <c r="X17" t="n">
-        <v>3162.046274359161</v>
+        <v>3162.04627435916</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.906942383349</v>
+        <v>2771.906942383348</v>
       </c>
     </row>
     <row r="18">
@@ -5577,10 +5577,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E18" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F18" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G18" t="n">
         <v>200.2749102482504</v>
@@ -5589,28 +5589,28 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I18" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J18" t="n">
-        <v>303.7104843962057</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K18" t="n">
-        <v>523.6911020897151</v>
+        <v>398.8609771027103</v>
       </c>
       <c r="L18" t="n">
-        <v>865.8047310281536</v>
+        <v>740.9746060411489</v>
       </c>
       <c r="M18" t="n">
-        <v>1284.392067714179</v>
+        <v>1159.561942727174</v>
       </c>
       <c r="N18" t="n">
-        <v>1728.466810572536</v>
+        <v>1775.808945633739</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.488648046188</v>
+        <v>2159.830783107391</v>
       </c>
       <c r="P18" t="n">
-        <v>2401.366962338752</v>
+        <v>2448.709097399955</v>
       </c>
       <c r="Q18" t="n">
         <v>2591.897403837273</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>272.8000950246396</v>
+        <v>246.017141518218</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8639120967327</v>
+        <v>246.017141518218</v>
       </c>
       <c r="D19" t="n">
-        <v>103.8639120967327</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="E19" t="n">
-        <v>103.8639120967327</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="F19" t="n">
-        <v>103.8639120967327</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="G19" t="n">
-        <v>103.8639120967327</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="H19" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="I19" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J19" t="n">
         <v>134.3119219239493</v>
@@ -5677,10 +5677,10 @@
         <v>327.2705209205382</v>
       </c>
       <c r="L19" t="n">
-        <v>629.7175289186659</v>
+        <v>629.7175289186657</v>
       </c>
       <c r="M19" t="n">
-        <v>958.9946157475347</v>
+        <v>958.9946157475345</v>
       </c>
       <c r="N19" t="n">
         <v>1285.876845843943</v>
@@ -5710,13 +5710,13 @@
         <v>903.2306898964267</v>
       </c>
       <c r="W19" t="n">
-        <v>903.2306898964267</v>
+        <v>694.7992715597654</v>
       </c>
       <c r="X19" t="n">
-        <v>675.2411389984094</v>
+        <v>466.8097206617481</v>
       </c>
       <c r="Y19" t="n">
-        <v>454.4485598548792</v>
+        <v>246.017141518218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2385.307102319228</v>
+        <v>2385.307102319226</v>
       </c>
       <c r="C20" t="n">
-        <v>2016.344585378816</v>
+        <v>2016.344585378814</v>
       </c>
       <c r="D20" t="n">
-        <v>1658.078886772066</v>
+        <v>1658.078886772064</v>
       </c>
       <c r="E20" t="n">
-        <v>1272.290634173822</v>
+        <v>1272.29063417382</v>
       </c>
       <c r="F20" t="n">
-        <v>861.3047293842142</v>
+        <v>861.3047293842126</v>
       </c>
       <c r="G20" t="n">
-        <v>446.0163630153974</v>
+        <v>446.0163630153958</v>
       </c>
       <c r="H20" t="n">
-        <v>146.2215106994497</v>
+        <v>146.2215106994483</v>
       </c>
       <c r="I20" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J20" t="n">
         <v>434.2243431462942</v>
       </c>
       <c r="K20" t="n">
-        <v>1062.028883705193</v>
+        <v>741.1249252597397</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.990756589921</v>
+        <v>1572.248599640192</v>
       </c>
       <c r="M20" t="n">
-        <v>2212.364132040893</v>
+        <v>2513.640373249069</v>
       </c>
       <c r="N20" t="n">
-        <v>2721.383156027881</v>
+        <v>3039.963877117648</v>
       </c>
       <c r="O20" t="n">
-        <v>3565.692304501311</v>
+        <v>3884.273025591078</v>
       </c>
       <c r="P20" t="n">
-        <v>4248.61624603333</v>
+        <v>4248.616246033329</v>
       </c>
       <c r="Q20" t="n">
         <v>4684.241925296375</v>
       </c>
       <c r="R20" t="n">
-        <v>4795.025105294115</v>
+        <v>4795.025105294114</v>
       </c>
       <c r="S20" t="n">
-        <v>4679.81424609894</v>
+        <v>4679.814246098938</v>
       </c>
       <c r="T20" t="n">
-        <v>4472.891325257195</v>
+        <v>4472.891325257193</v>
       </c>
       <c r="U20" t="n">
-        <v>4219.343575233926</v>
+        <v>4219.343575233925</v>
       </c>
       <c r="V20" t="n">
-        <v>3888.280687890356</v>
+        <v>3888.280687890354</v>
       </c>
       <c r="W20" t="n">
-        <v>3535.512032620241</v>
+        <v>3535.51203262024</v>
       </c>
       <c r="X20" t="n">
-        <v>3162.046274359162</v>
+        <v>3162.04627435916</v>
       </c>
       <c r="Y20" t="n">
-        <v>2771.90694238335</v>
+        <v>2771.906942383348</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5814,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E21" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F21" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G21" t="n">
         <v>200.2749102482504</v>
@@ -5826,13 +5826,13 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I21" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J21" t="n">
-        <v>303.7104843962057</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K21" t="n">
-        <v>571.033237150918</v>
+        <v>398.8609771027103</v>
       </c>
       <c r="L21" t="n">
         <v>913.1468660893565</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.7001913114988</v>
+        <v>272.8000950246393</v>
       </c>
       <c r="C22" t="n">
-        <v>263.7001913114988</v>
+        <v>103.863912096732</v>
       </c>
       <c r="D22" t="n">
-        <v>263.7001913114988</v>
+        <v>103.863912096732</v>
       </c>
       <c r="E22" t="n">
-        <v>263.7001913114988</v>
+        <v>103.863912096732</v>
       </c>
       <c r="F22" t="n">
-        <v>263.7001913114988</v>
+        <v>103.863912096732</v>
       </c>
       <c r="G22" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="H22" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="I22" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J22" t="n">
         <v>134.3119219239493</v>
@@ -5914,46 +5914,46 @@
         <v>327.2705209205382</v>
       </c>
       <c r="L22" t="n">
-        <v>629.7175289186658</v>
+        <v>629.7175289186657</v>
       </c>
       <c r="M22" t="n">
-        <v>958.9946157475346</v>
+        <v>958.9946157475345</v>
       </c>
       <c r="N22" t="n">
-        <v>1285.876845843943</v>
+        <v>1285.876845843942</v>
       </c>
       <c r="O22" t="n">
-        <v>1571.789197245564</v>
+        <v>1571.789197245563</v>
       </c>
       <c r="P22" t="n">
         <v>1792.915924525762</v>
       </c>
       <c r="Q22" t="n">
-        <v>1862.577528441617</v>
+        <v>1862.577528441616</v>
       </c>
       <c r="R22" t="n">
-        <v>1862.577528441617</v>
+        <v>1862.577528441616</v>
       </c>
       <c r="S22" t="n">
-        <v>1862.577528441617</v>
+        <v>1669.203767936595</v>
       </c>
       <c r="T22" t="n">
-        <v>1727.340594168508</v>
+        <v>1447.023327844688</v>
       </c>
       <c r="U22" t="n">
-        <v>1438.232444426133</v>
+        <v>1157.915178102313</v>
       </c>
       <c r="V22" t="n">
-        <v>1183.547956220247</v>
+        <v>903.2306898964265</v>
       </c>
       <c r="W22" t="n">
-        <v>894.130786183286</v>
+        <v>903.2306898964265</v>
       </c>
       <c r="X22" t="n">
-        <v>666.1412352852686</v>
+        <v>675.2411389984092</v>
       </c>
       <c r="Y22" t="n">
-        <v>445.3486561417385</v>
+        <v>454.448559854879</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2385.307102319228</v>
+        <v>2385.307102319227</v>
       </c>
       <c r="C23" t="n">
-        <v>2016.344585378817</v>
+        <v>2016.344585378815</v>
       </c>
       <c r="D23" t="n">
-        <v>1658.078886772066</v>
+        <v>1658.078886772065</v>
       </c>
       <c r="E23" t="n">
-        <v>1272.290634173822</v>
+        <v>1272.290634173821</v>
       </c>
       <c r="F23" t="n">
-        <v>861.3047293842143</v>
+        <v>861.3047293842133</v>
       </c>
       <c r="G23" t="n">
-        <v>446.0163630153975</v>
+        <v>446.0163630153967</v>
       </c>
       <c r="H23" t="n">
-        <v>146.2215106994497</v>
+        <v>146.2215106994496</v>
       </c>
       <c r="I23" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J23" t="n">
         <v>434.2243431462942</v>
       </c>
       <c r="K23" t="n">
-        <v>1062.028883705193</v>
+        <v>741.1249252597397</v>
       </c>
       <c r="L23" t="n">
-        <v>1479.6679556807</v>
+        <v>1572.248599640192</v>
       </c>
       <c r="M23" t="n">
-        <v>2421.059729289576</v>
+        <v>2097.971397962795</v>
       </c>
       <c r="N23" t="n">
-        <v>2930.078753276564</v>
+        <v>3039.963877117648</v>
       </c>
       <c r="O23" t="n">
-        <v>3565.692304501311</v>
+        <v>3884.273025591078</v>
       </c>
       <c r="P23" t="n">
-        <v>4248.61624603333</v>
+        <v>4248.616246033329</v>
       </c>
       <c r="Q23" t="n">
         <v>4684.241925296375</v>
       </c>
       <c r="R23" t="n">
-        <v>4795.025105294115</v>
+        <v>4795.025105294114</v>
       </c>
       <c r="S23" t="n">
-        <v>4679.81424609894</v>
+        <v>4679.814246098939</v>
       </c>
       <c r="T23" t="n">
-        <v>4472.891325257195</v>
+        <v>4472.891325257194</v>
       </c>
       <c r="U23" t="n">
         <v>4219.343575233926</v>
       </c>
       <c r="V23" t="n">
-        <v>3888.280687890356</v>
+        <v>3888.280687890355</v>
       </c>
       <c r="W23" t="n">
-        <v>3535.512032620241</v>
+        <v>3535.51203262024</v>
       </c>
       <c r="X23" t="n">
-        <v>3162.046274359162</v>
+        <v>3162.046274359161</v>
       </c>
       <c r="Y23" t="n">
-        <v>2771.90694238335</v>
+        <v>2771.906942383349</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>642.52554875332</v>
       </c>
       <c r="E24" t="n">
-        <v>483.2880937478645</v>
+        <v>483.2880937478644</v>
       </c>
       <c r="F24" t="n">
-        <v>336.7535357747495</v>
+        <v>336.7535357747494</v>
       </c>
       <c r="G24" t="n">
         <v>200.2749102482504</v>
@@ -6063,31 +6063,31 @@
         <v>108.6572841283284</v>
       </c>
       <c r="I24" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J24" t="n">
-        <v>178.880359409201</v>
+        <v>303.7104843962057</v>
       </c>
       <c r="K24" t="n">
-        <v>398.8609771027103</v>
+        <v>523.6911020897151</v>
       </c>
       <c r="L24" t="n">
-        <v>740.9746060411489</v>
+        <v>875.2518629687534</v>
       </c>
       <c r="M24" t="n">
-        <v>1159.561942727174</v>
+        <v>1293.839199654778</v>
       </c>
       <c r="N24" t="n">
-        <v>1603.636685585532</v>
+        <v>1737.913942513136</v>
       </c>
       <c r="O24" t="n">
-        <v>1987.658523059183</v>
+        <v>2121.935779986788</v>
       </c>
       <c r="P24" t="n">
-        <v>2448.709097399955</v>
+        <v>2410.814094279352</v>
       </c>
       <c r="Q24" t="n">
-        <v>2591.897403837273</v>
+        <v>2554.00240071667</v>
       </c>
       <c r="R24" t="n">
         <v>2591.897403837273</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.914979302914</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="C25" t="n">
-        <v>242.9787963750074</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="D25" t="n">
-        <v>242.9787963750074</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="E25" t="n">
-        <v>242.9787963750074</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="F25" t="n">
-        <v>242.9787963750074</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.9787963750074</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="H25" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="I25" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588228</v>
       </c>
       <c r="J25" t="n">
         <v>134.3119219239493</v>
@@ -6154,10 +6154,10 @@
         <v>629.7175289186658</v>
       </c>
       <c r="M25" t="n">
-        <v>958.9946157475346</v>
+        <v>958.9946157475343</v>
       </c>
       <c r="N25" t="n">
-        <v>1285.876845843943</v>
+        <v>1285.876845843942</v>
       </c>
       <c r="O25" t="n">
         <v>1571.789197245564</v>
@@ -6169,28 +6169,28 @@
         <v>1862.577528441616</v>
       </c>
       <c r="R25" t="n">
-        <v>1768.392226996059</v>
+        <v>1862.577528441616</v>
       </c>
       <c r="S25" t="n">
-        <v>1575.018466491038</v>
+        <v>1669.203767936595</v>
       </c>
       <c r="T25" t="n">
-        <v>1575.018466491038</v>
+        <v>1447.023327844688</v>
       </c>
       <c r="U25" t="n">
-        <v>1285.910316748663</v>
+        <v>1157.915178102313</v>
       </c>
       <c r="V25" t="n">
-        <v>1031.225828542777</v>
+        <v>903.2306898964263</v>
       </c>
       <c r="W25" t="n">
-        <v>860.6971093444615</v>
+        <v>726.3310969776694</v>
       </c>
       <c r="X25" t="n">
-        <v>632.7075584464442</v>
+        <v>498.3415460796521</v>
       </c>
       <c r="Y25" t="n">
-        <v>411.914979302914</v>
+        <v>277.548966936122</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2385.307102319226</v>
+        <v>2385.307102319228</v>
       </c>
       <c r="C26" t="n">
-        <v>2016.344585378815</v>
+        <v>2016.344585378816</v>
       </c>
       <c r="D26" t="n">
-        <v>1658.078886772064</v>
+        <v>1658.078886772066</v>
       </c>
       <c r="E26" t="n">
-        <v>1272.29063417382</v>
+        <v>1272.290634173822</v>
       </c>
       <c r="F26" t="n">
-        <v>861.3047293842128</v>
+        <v>861.3047293842142</v>
       </c>
       <c r="G26" t="n">
-        <v>446.0163630153967</v>
+        <v>446.0163630153975</v>
       </c>
       <c r="H26" t="n">
         <v>146.2215106994497</v>
       </c>
       <c r="I26" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="J26" t="n">
-        <v>266.8186941259412</v>
+        <v>434.2243431462942</v>
       </c>
       <c r="K26" t="n">
-        <v>600.7070464010253</v>
+        <v>741.1249252597397</v>
       </c>
       <c r="L26" t="n">
-        <v>1431.830720781478</v>
+        <v>1572.248599640192</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.222494390354</v>
+        <v>2513.640373249069</v>
       </c>
       <c r="N26" t="n">
-        <v>3315.214973545207</v>
+        <v>3098.375335478</v>
       </c>
       <c r="O26" t="n">
-        <v>4159.524122018637</v>
+        <v>3565.692304501312</v>
       </c>
       <c r="P26" t="n">
-        <v>4523.867342460888</v>
+        <v>4248.616246033331</v>
       </c>
       <c r="Q26" t="n">
-        <v>4749.301180970628</v>
+        <v>4684.241925296376</v>
       </c>
       <c r="R26" t="n">
-        <v>4795.025105294115</v>
+        <v>4795.025105294116</v>
       </c>
       <c r="S26" t="n">
-        <v>4679.814246098939</v>
+        <v>4679.81424609894</v>
       </c>
       <c r="T26" t="n">
-        <v>4472.891325257193</v>
+        <v>4472.891325257195</v>
       </c>
       <c r="U26" t="n">
-        <v>4219.343575233925</v>
+        <v>4219.343575233926</v>
       </c>
       <c r="V26" t="n">
-        <v>3888.280687890354</v>
+        <v>3888.280687890356</v>
       </c>
       <c r="W26" t="n">
-        <v>3535.51203262024</v>
+        <v>3535.512032620241</v>
       </c>
       <c r="X26" t="n">
-        <v>3162.04627435916</v>
+        <v>3162.046274359162</v>
       </c>
       <c r="Y26" t="n">
-        <v>2771.906942383348</v>
+        <v>2771.90694238335</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>200.2749102482504</v>
       </c>
       <c r="H27" t="n">
-        <v>108.6572841283284</v>
+        <v>108.6572841283285</v>
       </c>
       <c r="I27" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="J27" t="n">
-        <v>303.7104843962057</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K27" t="n">
-        <v>523.6911020897151</v>
+        <v>398.8609771027103</v>
       </c>
       <c r="L27" t="n">
-        <v>865.8047310281536</v>
+        <v>740.9746060411489</v>
       </c>
       <c r="M27" t="n">
-        <v>1284.392067714179</v>
+        <v>1159.561942727174</v>
       </c>
       <c r="N27" t="n">
-        <v>1728.466810572536</v>
+        <v>1603.636685585532</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.488648046188</v>
+        <v>2121.935779986788</v>
       </c>
       <c r="P27" t="n">
-        <v>2401.366962338752</v>
+        <v>2410.814094279352</v>
       </c>
       <c r="Q27" t="n">
-        <v>2591.897403837273</v>
+        <v>2554.00240071667</v>
       </c>
       <c r="R27" t="n">
         <v>2591.897403837273</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>730.6661072341346</v>
+        <v>264.8366850337892</v>
       </c>
       <c r="C28" t="n">
-        <v>561.7299243062278</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="D28" t="n">
-        <v>411.6132848938919</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="E28" t="n">
-        <v>263.7001913114989</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="F28" t="n">
-        <v>263.7001913114988</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="G28" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="H28" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="I28" t="n">
-        <v>95.9005021058823</v>
+        <v>95.90050210588231</v>
       </c>
       <c r="J28" t="n">
-        <v>134.3119219239493</v>
+        <v>134.3119219239491</v>
       </c>
       <c r="K28" t="n">
         <v>327.2705209205382</v>
       </c>
       <c r="L28" t="n">
-        <v>629.7175289186658</v>
+        <v>629.7175289186657</v>
       </c>
       <c r="M28" t="n">
-        <v>958.9946157475346</v>
+        <v>958.9946157475345</v>
       </c>
       <c r="N28" t="n">
-        <v>1285.876845843943</v>
+        <v>1285.876845843942</v>
       </c>
       <c r="O28" t="n">
         <v>1571.789197245564</v>
@@ -6409,25 +6409,25 @@
         <v>1862.577528441616</v>
       </c>
       <c r="S28" t="n">
-        <v>1862.577528441616</v>
+        <v>1669.203767936596</v>
       </c>
       <c r="T28" t="n">
-        <v>1862.577528441616</v>
+        <v>1447.023327844688</v>
       </c>
       <c r="U28" t="n">
-        <v>1650.513872142882</v>
+        <v>1157.915178102313</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.513872142882</v>
+        <v>903.2306898964265</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.096702105922</v>
+        <v>713.6188150753367</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.107151207905</v>
+        <v>485.6292641773193</v>
       </c>
       <c r="Y28" t="n">
-        <v>912.3145720643744</v>
+        <v>264.8366850337892</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2385.307102319229</v>
+        <v>2385.307102319227</v>
       </c>
       <c r="C29" t="n">
-        <v>2016.344585378817</v>
+        <v>2016.344585378816</v>
       </c>
       <c r="D29" t="n">
-        <v>1658.078886772066</v>
+        <v>1658.078886772065</v>
       </c>
       <c r="E29" t="n">
-        <v>1272.290634173822</v>
+        <v>1272.290634173821</v>
       </c>
       <c r="F29" t="n">
-        <v>861.3047293842146</v>
+        <v>861.3047293842138</v>
       </c>
       <c r="G29" t="n">
-        <v>446.0163630153977</v>
+        <v>446.0163630153976</v>
       </c>
       <c r="H29" t="n">
         <v>146.2215106994497</v>
       </c>
       <c r="I29" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J29" t="n">
-        <v>266.8186941259412</v>
+        <v>434.2243431462942</v>
       </c>
       <c r="K29" t="n">
-        <v>573.7192762393868</v>
+        <v>1062.028883705193</v>
       </c>
       <c r="L29" t="n">
-        <v>1404.842950619839</v>
+        <v>1893.152558085646</v>
       </c>
       <c r="M29" t="n">
-        <v>2346.234724228716</v>
+        <v>2389.525933536618</v>
       </c>
       <c r="N29" t="n">
-        <v>3288.227203383569</v>
+        <v>2898.544957523606</v>
       </c>
       <c r="O29" t="n">
-        <v>4132.536351856998</v>
+        <v>3742.854105997036</v>
       </c>
       <c r="P29" t="n">
-        <v>4496.879572299249</v>
+        <v>4425.778047529055</v>
       </c>
       <c r="Q29" t="n">
-        <v>4749.30118097063</v>
+        <v>4684.241925296375</v>
       </c>
       <c r="R29" t="n">
-        <v>4795.025105294118</v>
+        <v>4795.025105294115</v>
       </c>
       <c r="S29" t="n">
-        <v>4679.814246098943</v>
+        <v>4679.81424609894</v>
       </c>
       <c r="T29" t="n">
-        <v>4472.891325257197</v>
+        <v>4472.891325257195</v>
       </c>
       <c r="U29" t="n">
-        <v>4219.343575233928</v>
+        <v>4219.343575233926</v>
       </c>
       <c r="V29" t="n">
-        <v>3888.280687890358</v>
+        <v>3888.280687890355</v>
       </c>
       <c r="W29" t="n">
-        <v>3535.512032620244</v>
+        <v>3535.51203262024</v>
       </c>
       <c r="X29" t="n">
-        <v>3162.046274359164</v>
+        <v>3162.046274359161</v>
       </c>
       <c r="Y29" t="n">
-        <v>2771.906942383351</v>
+        <v>2771.906942383349</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>200.2749102482504</v>
       </c>
       <c r="H30" t="n">
-        <v>108.6572841283285</v>
+        <v>108.6572841283284</v>
       </c>
       <c r="I30" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J30" t="n">
-        <v>303.7104843962058</v>
+        <v>178.880359409201</v>
       </c>
       <c r="K30" t="n">
-        <v>523.6911020897151</v>
+        <v>398.8609771027103</v>
       </c>
       <c r="L30" t="n">
-        <v>865.8047310281536</v>
+        <v>740.9746060411489</v>
       </c>
       <c r="M30" t="n">
-        <v>1284.392067714179</v>
+        <v>1159.561942727174</v>
       </c>
       <c r="N30" t="n">
-        <v>1728.466810572536</v>
+        <v>1603.636685585532</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.488648046188</v>
+        <v>1987.658523059183</v>
       </c>
       <c r="P30" t="n">
-        <v>2401.366962338752</v>
+        <v>2276.536837351747</v>
       </c>
       <c r="Q30" t="n">
-        <v>2591.897403837273</v>
+        <v>2554.00240071667</v>
       </c>
       <c r="R30" t="n">
         <v>2591.897403837273</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="C31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="D31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="E31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="F31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="G31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="H31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="I31" t="n">
-        <v>95.90050210588235</v>
+        <v>95.9005021058823</v>
       </c>
       <c r="J31" t="n">
-        <v>134.3119219239494</v>
+        <v>134.3119219239493</v>
       </c>
       <c r="K31" t="n">
-        <v>327.2705209205383</v>
+        <v>327.2705209205382</v>
       </c>
       <c r="L31" t="n">
-        <v>629.7175289186659</v>
+        <v>629.7175289186658</v>
       </c>
       <c r="M31" t="n">
-        <v>958.9946157475347</v>
+        <v>958.9946157475346</v>
       </c>
       <c r="N31" t="n">
         <v>1285.876845843943</v>
@@ -6658,13 +6658,13 @@
         <v>903.2306898964265</v>
       </c>
       <c r="W31" t="n">
-        <v>613.8135198594658</v>
+        <v>613.8135198594659</v>
       </c>
       <c r="X31" t="n">
-        <v>385.8239689614485</v>
+        <v>385.8239689614486</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.0313898179184</v>
+        <v>277.548966936122</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2353.722629420186</v>
+        <v>2353.722629420183</v>
       </c>
       <c r="C32" t="n">
-        <v>1989.08312692685</v>
+        <v>1989.083126926847</v>
       </c>
       <c r="D32" t="n">
-        <v>1635.140442767175</v>
+        <v>1635.140442767173</v>
       </c>
       <c r="E32" t="n">
-        <v>1253.675204616006</v>
+        <v>1253.675204616004</v>
       </c>
       <c r="F32" t="n">
-        <v>847.0123142734744</v>
+        <v>847.0123142734724</v>
       </c>
       <c r="G32" t="n">
-        <v>436.0469623517333</v>
+        <v>436.0469623517331</v>
       </c>
       <c r="H32" t="n">
-        <v>140.575124482861</v>
+        <v>140.5751244828609</v>
       </c>
       <c r="I32" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="J32" t="n">
-        <v>432.9009713767813</v>
+        <v>265.4953223564282</v>
       </c>
       <c r="K32" t="n">
-        <v>1060.70551193568</v>
+        <v>704.3057596557226</v>
       </c>
       <c r="L32" t="n">
-        <v>1492.099809373966</v>
+        <v>1535.429434036175</v>
       </c>
       <c r="M32" t="n">
-        <v>1988.473184824938</v>
+        <v>2031.802809487147</v>
       </c>
       <c r="N32" t="n">
-        <v>2930.465663979791</v>
+        <v>2973.795288642</v>
       </c>
       <c r="O32" t="n">
-        <v>3774.774812453221</v>
+        <v>3818.10443711543</v>
       </c>
       <c r="P32" t="n">
-        <v>4457.69875398524</v>
+        <v>4182.447657557681</v>
       </c>
       <c r="Q32" t="n">
-        <v>4683.13259249498</v>
+        <v>4618.073336820727</v>
       </c>
       <c r="R32" t="n">
-        <v>4728.856516818467</v>
+        <v>4728.856516818466</v>
       </c>
       <c r="S32" t="n">
-        <v>4617.968672070368</v>
+        <v>4617.968672070366</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.368765675698</v>
+        <v>4415.368765675696</v>
       </c>
       <c r="U32" t="n">
-        <v>4166.144030099506</v>
+        <v>4166.144030099503</v>
       </c>
       <c r="V32" t="n">
-        <v>3839.404157203011</v>
+        <v>3839.404157203008</v>
       </c>
       <c r="W32" t="n">
-        <v>3490.958516379973</v>
+        <v>3490.95851637997</v>
       </c>
       <c r="X32" t="n">
-        <v>3121.815772565968</v>
+        <v>3121.815772565966</v>
       </c>
       <c r="Y32" t="n">
-        <v>2735.999455037232</v>
+        <v>2735.999455037229</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>641.202176983807</v>
       </c>
       <c r="E33" t="n">
-        <v>481.9647219783516</v>
+        <v>481.9647219783515</v>
       </c>
       <c r="F33" t="n">
         <v>335.4301640052365</v>
@@ -6774,28 +6774,28 @@
         <v>107.3339123588155</v>
       </c>
       <c r="I33" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="J33" t="n">
-        <v>302.3871126266928</v>
+        <v>177.556987639688</v>
       </c>
       <c r="K33" t="n">
-        <v>522.3677303202021</v>
+        <v>397.5376053331973</v>
       </c>
       <c r="L33" t="n">
-        <v>864.4813592586406</v>
+        <v>739.651234271636</v>
       </c>
       <c r="M33" t="n">
-        <v>1283.068695944666</v>
+        <v>1158.238570957661</v>
       </c>
       <c r="N33" t="n">
-        <v>1727.143438803023</v>
+        <v>1602.313313816019</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.165276276675</v>
+        <v>1986.33515128967</v>
       </c>
       <c r="P33" t="n">
-        <v>2400.043590569239</v>
+        <v>2447.385725630442</v>
       </c>
       <c r="Q33" t="n">
         <v>2590.57403206776</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.57713033636934</v>
+        <v>227.8650108545681</v>
       </c>
       <c r="C34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="D34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="E34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="F34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="G34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="H34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="I34" t="n">
-        <v>94.57713033636934</v>
+        <v>94.57713033636932</v>
       </c>
       <c r="J34" t="n">
-        <v>137.225536614015</v>
+        <v>137.2255366140154</v>
       </c>
       <c r="K34" t="n">
-        <v>334.4211220701827</v>
+        <v>334.4211220701832</v>
       </c>
       <c r="L34" t="n">
-        <v>641.1051165278891</v>
+        <v>641.1051165278898</v>
       </c>
       <c r="M34" t="n">
-        <v>974.6191898163368</v>
+        <v>974.6191898163373</v>
       </c>
       <c r="N34" t="n">
         <v>1305.738406372324</v>
@@ -6874,34 +6874,34 @@
         <v>1595.887744233524</v>
       </c>
       <c r="P34" t="n">
-        <v>1821.251457973301</v>
+        <v>1821.251457973302</v>
       </c>
       <c r="Q34" t="n">
-        <v>1895.150048348734</v>
+        <v>1895.150048348735</v>
       </c>
       <c r="R34" t="n">
-        <v>1895.150048348734</v>
+        <v>1895.150048348735</v>
       </c>
       <c r="S34" t="n">
-        <v>1706.099302290789</v>
+        <v>1706.099302290791</v>
       </c>
       <c r="T34" t="n">
-        <v>1532.279446510925</v>
+        <v>1488.241876645959</v>
       </c>
       <c r="U34" t="n">
-        <v>1247.494311215626</v>
+        <v>1203.45674135066</v>
       </c>
       <c r="V34" t="n">
-        <v>997.1328374568144</v>
+        <v>953.0952675918488</v>
       </c>
       <c r="W34" t="n">
-        <v>712.0386818669294</v>
+        <v>668.001112001964</v>
       </c>
       <c r="X34" t="n">
-        <v>488.3721454159878</v>
+        <v>444.3345755510225</v>
       </c>
       <c r="Y34" t="n">
-        <v>271.9025807195334</v>
+        <v>227.8650108545681</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2008.168886133742</v>
+        <v>2008.168886133741</v>
       </c>
       <c r="C35" t="n">
-        <v>1691.036635957651</v>
+        <v>1691.036635957649</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.60120411522</v>
+        <v>1384.601204115218</v>
       </c>
       <c r="E35" t="n">
-        <v>1050.643218281295</v>
+        <v>1050.643218281294</v>
       </c>
       <c r="F35" t="n">
-        <v>691.4875802560073</v>
+        <v>691.4875802560064</v>
       </c>
       <c r="G35" t="n">
-        <v>328.0294806515097</v>
+        <v>328.0294806515096</v>
       </c>
       <c r="H35" t="n">
-        <v>80.06489509988144</v>
+        <v>80.06489509988143</v>
       </c>
       <c r="I35" t="n">
-        <v>80.06489509988144</v>
+        <v>80.06489509988143</v>
       </c>
       <c r="J35" t="n">
-        <v>418.3887361402934</v>
+        <v>250.9830871199403</v>
       </c>
       <c r="K35" t="n">
-        <v>1046.193276699192</v>
+        <v>557.8836692333858</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.832348674699</v>
+        <v>975.5227412088926</v>
       </c>
       <c r="M35" t="n">
-        <v>1960.205724125671</v>
+        <v>1471.896116659865</v>
       </c>
       <c r="N35" t="n">
-        <v>2469.22474811266</v>
+        <v>2413.888595814718</v>
       </c>
       <c r="O35" t="n">
-        <v>2936.541717135972</v>
+        <v>3049.163050628826</v>
       </c>
       <c r="P35" t="n">
-        <v>3619.46565866799</v>
+        <v>3732.086992160844</v>
       </c>
       <c r="Q35" t="n">
-        <v>3892.461574996332</v>
+        <v>3957.520830670584</v>
       </c>
       <c r="R35" t="n">
-        <v>4003.244754994072</v>
+        <v>4003.244754994071</v>
       </c>
       <c r="S35" t="n">
-        <v>3939.864162563217</v>
+        <v>3939.864162563216</v>
       </c>
       <c r="T35" t="n">
         <v>3784.77150848579</v>
       </c>
       <c r="U35" t="n">
-        <v>3583.054025226842</v>
+        <v>3583.054025226841</v>
       </c>
       <c r="V35" t="n">
-        <v>3303.821404647591</v>
+        <v>3303.82140464759</v>
       </c>
       <c r="W35" t="n">
-        <v>3002.883016141797</v>
+        <v>3002.883016141795</v>
       </c>
       <c r="X35" t="n">
-        <v>2681.247524645037</v>
+        <v>2681.247524645035</v>
       </c>
       <c r="Y35" t="n">
-        <v>2342.938459433545</v>
+        <v>2342.938459433543</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>184.4393032422495</v>
       </c>
       <c r="H36" t="n">
-        <v>92.82167712232759</v>
+        <v>92.82167712232757</v>
       </c>
       <c r="I36" t="n">
-        <v>80.06489509988144</v>
+        <v>80.06489509988143</v>
       </c>
       <c r="J36" t="n">
         <v>163.0447524032001</v>
@@ -7023,13 +7023,13 @@
         <v>725.138999035148</v>
       </c>
       <c r="M36" t="n">
-        <v>1315.898595769381</v>
+        <v>1143.726335721173</v>
       </c>
       <c r="N36" t="n">
-        <v>1759.973338627738</v>
+        <v>1587.801078579531</v>
       </c>
       <c r="O36" t="n">
-        <v>2143.99517610139</v>
+        <v>1971.822916053182</v>
       </c>
       <c r="P36" t="n">
         <v>2432.873490393954</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>746.2251730606754</v>
+        <v>746.2251730606764</v>
       </c>
       <c r="C37" t="n">
-        <v>629.1192568970882</v>
+        <v>629.1192568970893</v>
       </c>
       <c r="D37" t="n">
-        <v>530.8328842490722</v>
+        <v>530.8328842490732</v>
       </c>
       <c r="E37" t="n">
-        <v>434.7500574309988</v>
+        <v>434.7500574309998</v>
       </c>
       <c r="F37" t="n">
-        <v>339.6903766974081</v>
+        <v>339.6903766974092</v>
       </c>
       <c r="G37" t="n">
-        <v>223.7209542561113</v>
+        <v>223.7209542561123</v>
       </c>
       <c r="H37" t="n">
-        <v>128.4729267513058</v>
+        <v>128.4729267513069</v>
       </c>
       <c r="I37" t="n">
-        <v>80.06489509988144</v>
+        <v>80.06489509988143</v>
       </c>
       <c r="J37" t="n">
-        <v>169.2751593736582</v>
+        <v>169.2751593736583</v>
       </c>
       <c r="K37" t="n">
-        <v>413.0326028259568</v>
+        <v>413.0326028259569</v>
       </c>
       <c r="L37" t="n">
-        <v>766.2784552797941</v>
+        <v>766.2784552797942</v>
       </c>
       <c r="M37" t="n">
         <v>1146.354386564373</v>
@@ -7114,31 +7114,31 @@
         <v>2132.672228709729</v>
       </c>
       <c r="Q37" t="n">
-        <v>2253.132677081292</v>
+        <v>2253.132677081293</v>
       </c>
       <c r="R37" t="n">
-        <v>2210.777642400055</v>
+        <v>2210.777642400056</v>
       </c>
       <c r="S37" t="n">
-        <v>2069.234148659354</v>
+        <v>2069.234148659355</v>
       </c>
       <c r="T37" t="n">
-        <v>1898.883975331766</v>
+        <v>1898.883975331767</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.606092353711</v>
+        <v>1661.606092353712</v>
       </c>
       <c r="V37" t="n">
-        <v>1458.751870912144</v>
+        <v>1458.751870912145</v>
       </c>
       <c r="W37" t="n">
-        <v>1221.164967639503</v>
+        <v>1221.164967639504</v>
       </c>
       <c r="X37" t="n">
-        <v>1045.005683505806</v>
+        <v>1045.005683505807</v>
       </c>
       <c r="Y37" t="n">
-        <v>876.0433711265954</v>
+        <v>876.0433711265964</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2008.168886133742</v>
       </c>
       <c r="C38" t="n">
-        <v>1691.036635957651</v>
+        <v>1691.03663595765</v>
       </c>
       <c r="D38" t="n">
-        <v>1384.60120411522</v>
+        <v>1384.601204115219</v>
       </c>
       <c r="E38" t="n">
         <v>1050.643218281295</v>
@@ -7172,28 +7172,28 @@
         <v>80.06489509988144</v>
       </c>
       <c r="J38" t="n">
-        <v>418.3887361402934</v>
+        <v>250.9830871199403</v>
       </c>
       <c r="K38" t="n">
-        <v>883.5635137644886</v>
+        <v>557.8836692333856</v>
       </c>
       <c r="L38" t="n">
-        <v>1301.202585739995</v>
+        <v>1239.824164346113</v>
       </c>
       <c r="M38" t="n">
-        <v>1797.575961190968</v>
+        <v>2181.215937954989</v>
       </c>
       <c r="N38" t="n">
-        <v>2306.594985177956</v>
+        <v>2690.234961941977</v>
       </c>
       <c r="O38" t="n">
-        <v>2773.911954201268</v>
+        <v>3157.551930965289</v>
       </c>
       <c r="P38" t="n">
-        <v>3456.835895733287</v>
+        <v>3521.89515140754</v>
       </c>
       <c r="Q38" t="n">
-        <v>3892.461574996332</v>
+        <v>3957.520830670585</v>
       </c>
       <c r="R38" t="n">
         <v>4003.244754994072</v>
@@ -7202,22 +7202,22 @@
         <v>3939.864162563217</v>
       </c>
       <c r="T38" t="n">
-        <v>3784.77150848579</v>
+        <v>3784.771508485791</v>
       </c>
       <c r="U38" t="n">
         <v>3583.054025226842</v>
       </c>
       <c r="V38" t="n">
-        <v>3303.821404647592</v>
+        <v>3303.821404647591</v>
       </c>
       <c r="W38" t="n">
-        <v>3002.883016141797</v>
+        <v>3002.883016141796</v>
       </c>
       <c r="X38" t="n">
-        <v>2681.247524645037</v>
+        <v>2681.247524645036</v>
       </c>
       <c r="Y38" t="n">
-        <v>2342.938459433545</v>
+        <v>2342.938459433544</v>
       </c>
     </row>
     <row r="39">
@@ -7236,40 +7236,40 @@
         <v>626.6899417473192</v>
       </c>
       <c r="E39" t="n">
-        <v>467.4524867418636</v>
+        <v>467.4524867418637</v>
       </c>
       <c r="F39" t="n">
-        <v>320.9179287687486</v>
+        <v>320.9179287687487</v>
       </c>
       <c r="G39" t="n">
-        <v>184.4393032422495</v>
+        <v>184.4393032422496</v>
       </c>
       <c r="H39" t="n">
-        <v>92.82167712232759</v>
+        <v>92.82167712232763</v>
       </c>
       <c r="I39" t="n">
         <v>80.06489509988144</v>
       </c>
       <c r="J39" t="n">
-        <v>287.8748773902049</v>
+        <v>163.0447524032001</v>
       </c>
       <c r="K39" t="n">
-        <v>507.8554950837142</v>
+        <v>383.0253700967093</v>
       </c>
       <c r="L39" t="n">
-        <v>849.9691240221528</v>
+        <v>725.1389990351477</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.556460708178</v>
+        <v>1143.726335721173</v>
       </c>
       <c r="N39" t="n">
-        <v>1712.631203566536</v>
+        <v>1587.80107857953</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.653041040187</v>
+        <v>1971.822916053181</v>
       </c>
       <c r="P39" t="n">
-        <v>2385.531355332751</v>
+        <v>2260.701230345745</v>
       </c>
       <c r="Q39" t="n">
         <v>2576.061796831272</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>746.2251730606758</v>
+        <v>746.2251730606753</v>
       </c>
       <c r="C40" t="n">
-        <v>629.1192568970887</v>
+        <v>629.1192568970881</v>
       </c>
       <c r="D40" t="n">
-        <v>530.8328842490727</v>
+        <v>530.8328842490721</v>
       </c>
       <c r="E40" t="n">
-        <v>434.7500574309993</v>
+        <v>434.7500574309987</v>
       </c>
       <c r="F40" t="n">
-        <v>339.6903766974086</v>
+        <v>339.6903766974081</v>
       </c>
       <c r="G40" t="n">
-        <v>223.7209542561118</v>
+        <v>223.7209542561112</v>
       </c>
       <c r="H40" t="n">
-        <v>128.4729267513064</v>
+        <v>128.4729267513058</v>
       </c>
       <c r="I40" t="n">
         <v>80.06489509988144</v>
       </c>
       <c r="J40" t="n">
-        <v>169.275159373658</v>
+        <v>169.2751593736583</v>
       </c>
       <c r="K40" t="n">
         <v>413.0326028259565</v>
@@ -7357,25 +7357,25 @@
         <v>2210.777642400055</v>
       </c>
       <c r="S40" t="n">
-        <v>2069.234148659355</v>
+        <v>2069.234148659354</v>
       </c>
       <c r="T40" t="n">
-        <v>1898.883975331767</v>
+        <v>1898.883975331766</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.606092353712</v>
+        <v>1661.606092353711</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.751870912145</v>
+        <v>1458.751870912144</v>
       </c>
       <c r="W40" t="n">
-        <v>1221.164967639504</v>
+        <v>1221.164967639503</v>
       </c>
       <c r="X40" t="n">
         <v>1045.005683505806</v>
       </c>
       <c r="Y40" t="n">
-        <v>876.0433711265958</v>
+        <v>876.0433711265953</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2008.168886133742</v>
+        <v>2008.168886133743</v>
       </c>
       <c r="C41" t="n">
-        <v>1691.03663595765</v>
+        <v>1691.036635957651</v>
       </c>
       <c r="D41" t="n">
-        <v>1384.601204115219</v>
+        <v>1384.601204115221</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.643218281295</v>
+        <v>1050.643218281296</v>
       </c>
       <c r="F41" t="n">
-        <v>691.4875802560067</v>
+        <v>691.4875802560083</v>
       </c>
       <c r="G41" t="n">
-        <v>328.0294806515097</v>
+        <v>328.0294806515098</v>
       </c>
       <c r="H41" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="I41" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J41" t="n">
-        <v>250.9830871199403</v>
+        <v>250.9830871199404</v>
       </c>
       <c r="K41" t="n">
         <v>557.8836692333858</v>
@@ -7418,43 +7418,43 @@
         <v>975.5227412088926</v>
       </c>
       <c r="M41" t="n">
-        <v>1916.914514817769</v>
+        <v>1471.896116659865</v>
       </c>
       <c r="N41" t="n">
-        <v>2425.933538804758</v>
+        <v>1980.915140646853</v>
       </c>
       <c r="O41" t="n">
-        <v>2893.25050782807</v>
+        <v>2825.224289120283</v>
       </c>
       <c r="P41" t="n">
-        <v>3576.174449360088</v>
+        <v>3508.148230652302</v>
       </c>
       <c r="Q41" t="n">
-        <v>3957.520830670584</v>
+        <v>3892.461574996333</v>
       </c>
       <c r="R41" t="n">
-        <v>4003.244754994071</v>
+        <v>4003.244754994073</v>
       </c>
       <c r="S41" t="n">
-        <v>3939.864162563216</v>
+        <v>3939.864162563218</v>
       </c>
       <c r="T41" t="n">
-        <v>3784.77150848579</v>
+        <v>3784.771508485792</v>
       </c>
       <c r="U41" t="n">
-        <v>3583.054025226842</v>
+        <v>3583.054025226843</v>
       </c>
       <c r="V41" t="n">
-        <v>3303.821404647591</v>
+        <v>3303.821404647592</v>
       </c>
       <c r="W41" t="n">
-        <v>3002.883016141796</v>
+        <v>3002.883016141798</v>
       </c>
       <c r="X41" t="n">
-        <v>2681.247524645036</v>
+        <v>2681.247524645038</v>
       </c>
       <c r="Y41" t="n">
-        <v>2342.938459433544</v>
+        <v>2342.938459433546</v>
       </c>
     </row>
     <row r="42">
@@ -7473,40 +7473,40 @@
         <v>626.6899417473192</v>
       </c>
       <c r="E42" t="n">
-        <v>467.4524867418636</v>
+        <v>467.4524867418637</v>
       </c>
       <c r="F42" t="n">
-        <v>320.9179287687486</v>
+        <v>320.9179287687487</v>
       </c>
       <c r="G42" t="n">
-        <v>184.4393032422495</v>
+        <v>184.4393032422496</v>
       </c>
       <c r="H42" t="n">
-        <v>92.82167712232757</v>
+        <v>92.82167712232761</v>
       </c>
       <c r="I42" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J42" t="n">
-        <v>163.0447524032001</v>
+        <v>163.0447524032002</v>
       </c>
       <c r="K42" t="n">
-        <v>383.0253700967094</v>
+        <v>383.0253700967095</v>
       </c>
       <c r="L42" t="n">
-        <v>897.3112590833557</v>
+        <v>725.1389990351481</v>
       </c>
       <c r="M42" t="n">
-        <v>1315.898595769381</v>
+        <v>1143.726335721173</v>
       </c>
       <c r="N42" t="n">
-        <v>1759.973338627738</v>
+        <v>1587.801078579531</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.99517610139</v>
+        <v>1971.822916053182</v>
       </c>
       <c r="P42" t="n">
-        <v>2432.873490393954</v>
+        <v>2260.701230345746</v>
       </c>
       <c r="Q42" t="n">
         <v>2576.061796831272</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.2251730606756</v>
+        <v>746.2251730606752</v>
       </c>
       <c r="C43" t="n">
-        <v>629.1192568970885</v>
+        <v>629.1192568970879</v>
       </c>
       <c r="D43" t="n">
-        <v>530.8328842490724</v>
+        <v>530.8328842490719</v>
       </c>
       <c r="E43" t="n">
-        <v>434.750057430999</v>
+        <v>434.7500574309985</v>
       </c>
       <c r="F43" t="n">
-        <v>339.6903766974084</v>
+        <v>339.6903766974078</v>
       </c>
       <c r="G43" t="n">
-        <v>223.7209542561116</v>
+        <v>223.7209542561109</v>
       </c>
       <c r="H43" t="n">
-        <v>128.4729267513065</v>
+        <v>128.4729267513055</v>
       </c>
       <c r="I43" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J43" t="n">
-        <v>169.2751593736582</v>
+        <v>169.2751593736583</v>
       </c>
       <c r="K43" t="n">
-        <v>413.0326028259568</v>
+        <v>413.0326028259569</v>
       </c>
       <c r="L43" t="n">
-        <v>766.2784552797941</v>
+        <v>766.2784552797942</v>
       </c>
       <c r="M43" t="n">
         <v>1146.354386564373</v>
       </c>
       <c r="N43" t="n">
-        <v>1524.03546111649</v>
+        <v>1524.035461116491</v>
       </c>
       <c r="O43" t="n">
         <v>1860.746656973821</v>
@@ -7603,16 +7603,16 @@
         <v>1661.606092353712</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.751870912145</v>
+        <v>1458.751870912144</v>
       </c>
       <c r="W43" t="n">
-        <v>1221.164967639504</v>
+        <v>1221.164967639503</v>
       </c>
       <c r="X43" t="n">
         <v>1045.005683505806</v>
       </c>
       <c r="Y43" t="n">
-        <v>876.0433711265956</v>
+        <v>876.0433711265953</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2008.168886133742</v>
+        <v>2008.168886133743</v>
       </c>
       <c r="C44" t="n">
-        <v>1691.03663595765</v>
+        <v>1691.036635957651</v>
       </c>
       <c r="D44" t="n">
-        <v>1384.601204115219</v>
+        <v>1384.60120411522</v>
       </c>
       <c r="E44" t="n">
-        <v>1050.643218281295</v>
+        <v>1050.643218281296</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4875802560069</v>
+        <v>691.4875802560077</v>
       </c>
       <c r="G44" t="n">
-        <v>328.0294806515097</v>
+        <v>328.0294806515098</v>
       </c>
       <c r="H44" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="I44" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J44" t="n">
-        <v>418.3887361402934</v>
+        <v>250.9830871199404</v>
       </c>
       <c r="K44" t="n">
-        <v>725.2893182537389</v>
+        <v>557.8836692333858</v>
       </c>
       <c r="L44" t="n">
-        <v>1142.928390229246</v>
+        <v>975.5227412088926</v>
       </c>
       <c r="M44" t="n">
-        <v>1639.301765680218</v>
+        <v>1916.914514817769</v>
       </c>
       <c r="N44" t="n">
-        <v>2148.320789667207</v>
+        <v>2458.375367570913</v>
       </c>
       <c r="O44" t="n">
-        <v>2773.911954201268</v>
+        <v>3302.684516044343</v>
       </c>
       <c r="P44" t="n">
-        <v>3456.835895733286</v>
+        <v>3667.027736486593</v>
       </c>
       <c r="Q44" t="n">
-        <v>3892.461574996331</v>
+        <v>3892.461574996333</v>
       </c>
       <c r="R44" t="n">
-        <v>4003.244754994071</v>
+        <v>4003.244754994073</v>
       </c>
       <c r="S44" t="n">
-        <v>3939.864162563216</v>
+        <v>3939.864162563218</v>
       </c>
       <c r="T44" t="n">
-        <v>3784.77150848579</v>
+        <v>3784.771508485792</v>
       </c>
       <c r="U44" t="n">
-        <v>3583.054025226842</v>
+        <v>3583.054025226843</v>
       </c>
       <c r="V44" t="n">
-        <v>3303.82140464759</v>
+        <v>3303.821404647592</v>
       </c>
       <c r="W44" t="n">
-        <v>3002.883016141796</v>
+        <v>3002.883016141797</v>
       </c>
       <c r="X44" t="n">
-        <v>2681.247524645036</v>
+        <v>2681.247524645037</v>
       </c>
       <c r="Y44" t="n">
-        <v>2342.938459433544</v>
+        <v>2342.938459433545</v>
       </c>
     </row>
     <row r="45">
@@ -7710,40 +7710,40 @@
         <v>626.6899417473192</v>
       </c>
       <c r="E45" t="n">
-        <v>467.4524867418636</v>
+        <v>467.4524867418637</v>
       </c>
       <c r="F45" t="n">
-        <v>320.9179287687486</v>
+        <v>320.9179287687487</v>
       </c>
       <c r="G45" t="n">
-        <v>184.4393032422495</v>
+        <v>184.4393032422496</v>
       </c>
       <c r="H45" t="n">
-        <v>92.82167712232757</v>
+        <v>92.82167712232761</v>
       </c>
       <c r="I45" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J45" t="n">
-        <v>287.8748773902049</v>
+        <v>163.0447524032002</v>
       </c>
       <c r="K45" t="n">
-        <v>507.8554950837142</v>
+        <v>383.0253700967095</v>
       </c>
       <c r="L45" t="n">
-        <v>849.9691240221528</v>
+        <v>897.3112590833557</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.556460708178</v>
+        <v>1315.898595769381</v>
       </c>
       <c r="N45" t="n">
-        <v>1712.631203566536</v>
+        <v>1759.973338627738</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.653041040187</v>
+        <v>2143.99517610139</v>
       </c>
       <c r="P45" t="n">
-        <v>2385.531355332751</v>
+        <v>2432.873490393954</v>
       </c>
       <c r="Q45" t="n">
         <v>2576.061796831272</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>746.2251730606754</v>
+        <v>746.2251730606745</v>
       </c>
       <c r="C46" t="n">
-        <v>629.1192568970881</v>
+        <v>629.1192568970872</v>
       </c>
       <c r="D46" t="n">
-        <v>530.8328842490721</v>
+        <v>530.8328842490712</v>
       </c>
       <c r="E46" t="n">
-        <v>434.7500574309987</v>
+        <v>434.7500574309978</v>
       </c>
       <c r="F46" t="n">
-        <v>339.6903766974081</v>
+        <v>339.6903766974071</v>
       </c>
       <c r="G46" t="n">
-        <v>223.7209542561112</v>
+        <v>223.7209542561102</v>
       </c>
       <c r="H46" t="n">
-        <v>128.4729267513058</v>
+        <v>128.4729267513047</v>
       </c>
       <c r="I46" t="n">
-        <v>80.06489509988143</v>
+        <v>80.06489509988147</v>
       </c>
       <c r="J46" t="n">
-        <v>169.2751593736582</v>
+        <v>169.2751593736584</v>
       </c>
       <c r="K46" t="n">
-        <v>413.0326028259568</v>
+        <v>413.0326028259569</v>
       </c>
       <c r="L46" t="n">
         <v>766.2784552797941</v>
@@ -7831,13 +7831,13 @@
         <v>2210.777642400055</v>
       </c>
       <c r="S46" t="n">
-        <v>2069.234148659354</v>
+        <v>2069.234148659355</v>
       </c>
       <c r="T46" t="n">
         <v>1898.883975331767</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.606092353712</v>
+        <v>1661.606092353711</v>
       </c>
       <c r="V46" t="n">
         <v>1458.751870912144</v>
@@ -7846,10 +7846,10 @@
         <v>1221.164967639503</v>
       </c>
       <c r="X46" t="n">
-        <v>1045.005683505806</v>
+        <v>1045.005683505805</v>
       </c>
       <c r="Y46" t="n">
-        <v>876.0433711265954</v>
+        <v>876.0433711265946</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O2" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M3" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N3" t="n">
-        <v>158.9317373436494</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>160.4496841792801</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>246.5651278099299</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L5" t="n">
-        <v>263.356440230303</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875884</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N5" t="n">
-        <v>257.0030888569066</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>166.1444050401899</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>168.6093106869677</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746459</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463372</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>166.5158092079207</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N7" t="n">
-        <v>155.2755697255489</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>184.4830882253185</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>125.0012109778162</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>238.4567629016471</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>173.9113737860682</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>47.8203384456595</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>407.8065150803772</v>
       </c>
       <c r="N14" t="n">
-        <v>238.7098999083041</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>173.9113737860681</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>47.82033844565979</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>7.243888881418513</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>125.5083880674846</v>
+        <v>323.3100652468582</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>173.9113737860682</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>47.82033844565979</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>7.243888881418513</v>
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>238.7098999083041</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>17.47927260766744</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>47.82033844565956</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>173.9113737860683</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>29.64588168851606</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>169.9965476782171</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>9.542557515757323</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>173.9113737860682</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.243888881418513</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>27.26037390064511</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>76.48074569893197</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>135.6335928561659</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>47.82033844565979</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.243888881418513</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>27.26037390064818</v>
+        <v>33.36367601775871</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>47.82033844565979</v>
+        <v>135.6335928561663</v>
       </c>
       <c r="R30" t="n">
-        <v>7.243888881418513</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2422779655039</v>
       </c>
       <c r="L32" t="n">
-        <v>13.89416713412083</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>173.9113737860682</v>
       </c>
       <c r="Q33" t="n">
-        <v>47.82033844565979</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>7.243888881418513</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,19 +10595,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>169.6540260513092</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.0425028470726</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>173.9113737860684</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>173.9113737860682</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>159.8729247583331</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>266.971134482041</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>47.82033844565979</v>
+        <v>173.9113737860695</v>
       </c>
       <c r="R39" t="n">
-        <v>7.243888881418513</v>
+        <v>7.243888881418542</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.4874169704608</v>
+        <v>160.4843493275675</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,22 +11142,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>173.9113737860685</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>7.243888881418513</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>32.76952400621724</v>
       </c>
       <c r="O44" t="n">
-        <v>159.8729247583325</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>173.9113737860683</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>47.82033844565979</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>7.243888881418513</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>111.4458860207718</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.4458860207729</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>153.298017524656</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.1216923135604</v>
       </c>
       <c r="H13" t="n">
-        <v>145.6075113264339</v>
+        <v>145.6075113264338</v>
       </c>
       <c r="I13" t="n">
         <v>99.23591543158665</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>179.3175191917136</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>153.2980175246563</v>
       </c>
       <c r="D16" t="n">
-        <v>14.73090808783581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.1216923135604</v>
       </c>
       <c r="H16" t="n">
         <v>145.6075113264339</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.24344843110184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.9586356909884</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.1216923135604</v>
       </c>
       <c r="H19" t="n">
-        <v>137.723735435492</v>
+        <v>145.6075113264339</v>
       </c>
       <c r="I19" t="n">
         <v>99.23591543158665</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>80.17589418329621</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.293187779083382e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.2379164226192</v>
       </c>
       <c r="H22" t="n">
         <v>145.6075113264339</v>
@@ -24175,10 +24175,10 @@
         <v>93.24344843110184</v>
       </c>
       <c r="S22" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>86.07407076061116</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,7 +24379,7 @@
         <v>166.1216923135604</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.6075113264339</v>
       </c>
       <c r="I25" t="n">
         <v>99.23591543158665</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>93.24344843110184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.9586356909884</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.6995663302592</v>
+        <v>111.3924013470218</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.1216923135604</v>
       </c>
       <c r="H28" t="n">
         <v>145.6075113264339</v>
@@ -24649,19 +24649,19 @@
         <v>93.24344843110184</v>
       </c>
       <c r="S28" t="n">
-        <v>191.4400228999703</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.9586356909884</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>76.27404850920452</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>98.80724226371197</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.3924013470216</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>111.392401347021</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>175.5521958793323</v>
       </c>
       <c r="C34" t="n">
-        <v>162.9670367960229</v>
+        <v>31.01203508300623</v>
       </c>
       <c r="D34" t="n">
-        <v>144.3356887156074</v>
+        <v>144.3356887156073</v>
       </c>
       <c r="E34" t="n">
-        <v>142.1541783439642</v>
+        <v>142.1541783439641</v>
       </c>
       <c r="F34" t="n">
-        <v>141.1412637203263</v>
+        <v>141.1412637203262</v>
       </c>
       <c r="G34" t="n">
-        <v>161.8419080109554</v>
+        <v>161.8419080109553</v>
       </c>
       <c r="H34" t="n">
-        <v>141.3277270238289</v>
+        <v>141.3277270238288</v>
       </c>
       <c r="I34" t="n">
-        <v>94.95613112898172</v>
+        <v>94.95613112898161</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.96366412849693</v>
+        <v>88.9636641284968</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>43.59719416631748</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>410975.7953541265</v>
+        <v>410975.7953541267</v>
       </c>
       <c r="F2" t="n">
         <v>415633.1189309346</v>
       </c>
       <c r="G2" t="n">
+        <v>415633.1189309347</v>
+      </c>
+      <c r="H2" t="n">
         <v>415633.1189309346</v>
       </c>
-      <c r="H2" t="n">
-        <v>415633.1189309345</v>
-      </c>
       <c r="I2" t="n">
-        <v>415633.1189309345</v>
+        <v>415633.1189309349</v>
       </c>
       <c r="J2" t="n">
         <v>415633.1189309345</v>
       </c>
       <c r="K2" t="n">
-        <v>415633.1189309348</v>
+        <v>415633.1189309347</v>
       </c>
       <c r="L2" t="n">
-        <v>416918.7407991144</v>
+        <v>416918.7407991142</v>
       </c>
       <c r="M2" t="n">
+        <v>431046.929178749</v>
+      </c>
+      <c r="N2" t="n">
+        <v>431046.9291787489</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787488</v>
       </c>
-      <c r="N2" t="n">
-        <v>431046.9291787487</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>431046.9291787489</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787487</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5138.487159547916</v>
+        <v>5138.487159547775</v>
       </c>
       <c r="E3" t="n">
         <v>1168982.290765617</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210179</v>
+        <v>7218.764569210275</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3423.827442083929</v>
+        <v>3423.827442084026</v>
       </c>
       <c r="M3" t="n">
-        <v>272999.898233857</v>
+        <v>272999.8982338569</v>
       </c>
       <c r="N3" t="n">
-        <v>7033.628768658368</v>
+        <v>7033.628768658452</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394756.8150386529</v>
+        <v>394756.8150386528</v>
       </c>
       <c r="C4" t="n">
         <v>394756.8150386529</v>
@@ -26424,40 +26424,40 @@
         <v>392085.4318580095</v>
       </c>
       <c r="E4" t="n">
-        <v>40722.35955612374</v>
+        <v>40722.35955612372</v>
       </c>
       <c r="F4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329873</v>
       </c>
       <c r="G4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329873</v>
       </c>
       <c r="H4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329873</v>
       </c>
       <c r="I4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329873</v>
       </c>
       <c r="J4" t="n">
-        <v>42998.73928329875</v>
+        <v>42998.73928329877</v>
       </c>
       <c r="K4" t="n">
-        <v>42998.73928329881</v>
+        <v>42998.73928329877</v>
       </c>
       <c r="L4" t="n">
-        <v>46012.38192674454</v>
+        <v>46012.38192674465</v>
       </c>
       <c r="M4" t="n">
-        <v>79093.08390349992</v>
+        <v>79093.08390349995</v>
       </c>
       <c r="N4" t="n">
+        <v>79093.08390350001</v>
+      </c>
+      <c r="O4" t="n">
         <v>79093.08390349994</v>
       </c>
-      <c r="O4" t="n">
-        <v>79093.08390349992</v>
-      </c>
       <c r="P4" t="n">
-        <v>79093.08390349992</v>
+        <v>79093.08390349991</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>35305.07353582722</v>
       </c>
       <c r="C5" t="n">
-        <v>35305.07353582719</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="D5" t="n">
         <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>93736.35409997802</v>
+        <v>93736.35409997801</v>
       </c>
       <c r="F5" t="n">
+        <v>95482.36262143309</v>
+      </c>
+      <c r="G5" t="n">
+        <v>95482.36262143309</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95482.36262143309</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95482.36262143309</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95482.36262143312</v>
+      </c>
+      <c r="K5" t="n">
         <v>95482.3626214331</v>
-      </c>
-      <c r="G5" t="n">
-        <v>95482.3626214331</v>
-      </c>
-      <c r="H5" t="n">
-        <v>95482.3626214331</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95482.3626214331</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95482.3626214331</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95482.36262143315</v>
       </c>
       <c r="L5" t="n">
         <v>94836.39726313893</v>
       </c>
       <c r="M5" t="n">
-        <v>87761.04680651594</v>
+        <v>87761.04680651592</v>
       </c>
       <c r="N5" t="n">
-        <v>87761.04680651594</v>
+        <v>87761.04680651595</v>
       </c>
       <c r="O5" t="n">
-        <v>87761.04680651592</v>
+        <v>87761.04680651595</v>
       </c>
       <c r="P5" t="n">
-        <v>87761.04680651592</v>
+        <v>87761.04680651595</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8261.011431044142</v>
+        <v>-8261.011431044259</v>
       </c>
       <c r="C6" t="n">
-        <v>985.0406042688119</v>
+        <v>985.0406042686664</v>
       </c>
       <c r="D6" t="n">
-        <v>-2487.825919465758</v>
+        <v>-2487.825919465642</v>
       </c>
       <c r="E6" t="n">
-        <v>-892465.2090675923</v>
+        <v>-892560.7858953284</v>
       </c>
       <c r="F6" t="n">
-        <v>268923.7795653732</v>
+        <v>268850.380468955</v>
       </c>
       <c r="G6" t="n">
-        <v>277152.0170262028</v>
+        <v>277078.6179297847</v>
       </c>
       <c r="H6" t="n">
-        <v>277152.0170262026</v>
+        <v>277078.6179297846</v>
       </c>
       <c r="I6" t="n">
-        <v>277152.0170262026</v>
+        <v>277078.6179297849</v>
       </c>
       <c r="J6" t="n">
-        <v>269933.2524569925</v>
+        <v>269859.8533605741</v>
       </c>
       <c r="K6" t="n">
-        <v>277152.0170262028</v>
+        <v>277078.6179297846</v>
       </c>
       <c r="L6" t="n">
-        <v>272646.134167147</v>
+        <v>272578.8570796244</v>
       </c>
       <c r="M6" t="n">
-        <v>-8807.099765124061</v>
+        <v>-8807.099765123727</v>
       </c>
       <c r="N6" t="n">
-        <v>257159.1697000744</v>
+        <v>257159.1697000745</v>
       </c>
       <c r="O6" t="n">
-        <v>264192.7984687331</v>
+        <v>264192.798468733</v>
       </c>
       <c r="P6" t="n">
-        <v>264192.7984687329</v>
+        <v>264192.798468733</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="M2" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="N2" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="O2" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="P2" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>27.59002526031614</v>
       </c>
       <c r="C4" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>1170.03903090486</v>
+        <v>1170.039030904859</v>
       </c>
       <c r="F4" t="n">
-        <v>1198.756276323529</v>
+        <v>1198.756276323528</v>
       </c>
       <c r="G4" t="n">
-        <v>1198.756276323529</v>
+        <v>1198.756276323528</v>
       </c>
       <c r="H4" t="n">
-        <v>1198.756276323529</v>
+        <v>1198.756276323528</v>
       </c>
       <c r="I4" t="n">
-        <v>1198.756276323529</v>
+        <v>1198.756276323528</v>
       </c>
       <c r="J4" t="n">
         <v>1198.756276323529</v>
@@ -26817,7 +26817,7 @@
         <v>1198.756276323529</v>
       </c>
       <c r="L4" t="n">
-        <v>1182.214129204617</v>
+        <v>1182.214129204616</v>
       </c>
       <c r="M4" t="n">
         <v>1000.811188748518</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="M2" t="n">
-        <v>47.0321797940716</v>
+        <v>47.0321797940715</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.54214711891291</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="E4" t="n">
         <v>1125.906858525631</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031622</v>
+        <v>27.59002526031659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>944.5039180695321</v>
+        <v>944.503918069532</v>
       </c>
       <c r="N4" t="n">
-        <v>28.71724541866911</v>
+        <v>28.71724541866945</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>16.54214711891291</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="M4" t="n">
         <v>1125.906858525631</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>379.8078590798218</v>
       </c>
       <c r="F2" t="n">
-        <v>379.2860204813953</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,10 +27397,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>182.8858643100898</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>198.4565569242763</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>182.2182822804489</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>266.591710731088</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.3725359833519</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>337.6828665106918</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,19 +27625,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813958</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548194</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>311.884776855451</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>208.353378577966</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8550403043231</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S6" t="n">
-        <v>144.0931458435221</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>175.8634344455351</v>
       </c>
       <c r="U6" t="n">
-        <v>201.6400878316888</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>178.0926705169887</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>65.76915485635709</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.5720179913787</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>157.5660727517666</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27828,16 +27828,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X7" t="n">
-        <v>200.6618033292009</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>389.9444168792442</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X8" t="n">
         <v>325.5989282992405</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>369.5451044812755</v>
       </c>
     </row>
     <row r="9">
@@ -27941,19 +27941,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>142.2954822415181</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
         <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="C32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="D32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="E32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="F32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="G32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="H32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="I32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="T32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="U32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="V32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="W32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="X32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="Y32" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="C34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="D34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="E34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="F34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="G34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="H34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="I34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="J34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="K34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="L34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="M34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="N34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="O34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="P34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="R34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="S34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="T34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="U34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="V34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="W34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="X34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.279784302604911</v>
+        <v>4.279784302605032</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="C35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="D35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="E35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="F35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="G35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="H35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="I35" t="n">
         <v>49.81779850763166</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="T35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="U35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="V35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="W35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="X35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Y35" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="C37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="D37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="E37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="F37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="G37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="H37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="I37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="J37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="K37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="L37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="M37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="N37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="O37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="P37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="R37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="S37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="T37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="U37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="V37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="W37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="X37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="C38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="D38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="E38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="F38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="G38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="H38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81779850763166</v>
+        <v>49.81779850763172</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="T38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="U38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="V38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="W38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="X38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Y38" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="C40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="D40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="E40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="F40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="G40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="H40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="I40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="J40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="K40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="L40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="M40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="N40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="O40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="P40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="R40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="S40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="T40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="U40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="V40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="W40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="X40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667653</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="C41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="D41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="E41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="F41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="G41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="H41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="I41" t="n">
         <v>49.81779850763166</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="T41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="U41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="V41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="W41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="X41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="Y41" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="C43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="D43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="E43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="F43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="H43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="I43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="J43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="K43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="L43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="M43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="N43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="O43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="P43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="R43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="S43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="T43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="U43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="V43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="W43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="X43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667647</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="C44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="D44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="E44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="F44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="G44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="H44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="I44" t="n">
         <v>49.81779850763166</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="T44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="U44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="V44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="W44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="X44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="Y44" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="C46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="D46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="E46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="F46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="H46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="I46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="J46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="K46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="L46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="M46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="N46" t="n">
-        <v>51.31196409667615</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="O46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="P46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="R46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="S46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="T46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="U46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="V46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="W46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="X46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.3119640966765</v>
+        <v>51.31196409667645</v>
       </c>
     </row>
   </sheetData>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.167254810006461</v>
+        <v>4.16725481000646</v>
       </c>
       <c r="H38" t="n">
-        <v>42.67789832297868</v>
+        <v>42.67789832297867</v>
       </c>
       <c r="I38" t="n">
         <v>160.6580910627742</v>
       </c>
       <c r="J38" t="n">
-        <v>353.6905429307862</v>
+        <v>353.6905429307861</v>
       </c>
       <c r="K38" t="n">
-        <v>530.0904390383598</v>
+        <v>530.0904390383597</v>
       </c>
       <c r="L38" t="n">
-        <v>657.6240634300951</v>
+        <v>657.624063430095</v>
       </c>
       <c r="M38" t="n">
-        <v>731.7334811575475</v>
+        <v>731.7334811575473</v>
       </c>
       <c r="N38" t="n">
-        <v>743.5736938864784</v>
+        <v>743.5736938864783</v>
       </c>
       <c r="O38" t="n">
-        <v>702.1355538694767</v>
+        <v>702.1355538694764</v>
       </c>
       <c r="P38" t="n">
-        <v>599.256450747442</v>
+        <v>599.2564507474419</v>
       </c>
       <c r="Q38" t="n">
-        <v>450.0166378640855</v>
+        <v>450.0166378640854</v>
       </c>
       <c r="R38" t="n">
-        <v>261.7713199590686</v>
+        <v>261.7713199590685</v>
       </c>
       <c r="S38" t="n">
-        <v>94.96131898302232</v>
+        <v>94.9613189830223</v>
       </c>
       <c r="T38" t="n">
         <v>18.24215793080329</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3333803848005168</v>
+        <v>0.3333803848005167</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.229677891976572</v>
+        <v>2.229677891976571</v>
       </c>
       <c r="H39" t="n">
-        <v>21.53399437777374</v>
+        <v>21.53399437777373</v>
       </c>
       <c r="I39" t="n">
-        <v>76.76741864919339</v>
+        <v>76.76741864919336</v>
       </c>
       <c r="J39" t="n">
-        <v>210.6556643467866</v>
+        <v>210.6556643467865</v>
       </c>
       <c r="K39" t="n">
-        <v>360.0440831092169</v>
+        <v>360.0440831092168</v>
       </c>
       <c r="L39" t="n">
-        <v>484.1237019399131</v>
+        <v>484.123701939913</v>
       </c>
       <c r="M39" t="n">
-        <v>564.9495255240638</v>
+        <v>564.9495255240636</v>
       </c>
       <c r="N39" t="n">
-        <v>579.9020584049067</v>
+        <v>579.9020584049066</v>
       </c>
       <c r="O39" t="n">
-        <v>530.4970903774258</v>
+        <v>530.4970903774257</v>
       </c>
       <c r="P39" t="n">
-        <v>425.7706844775263</v>
+        <v>425.7706844775262</v>
       </c>
       <c r="Q39" t="n">
         <v>284.6164270530094</v>
@@ -34001,7 +34001,7 @@
         <v>41.4152889145648</v>
       </c>
       <c r="T39" t="n">
-        <v>8.987166590905565</v>
+        <v>8.987166590905563</v>
       </c>
       <c r="U39" t="n">
         <v>0.1466893349984587</v>
@@ -34044,13 +34044,13 @@
         <v>1.869287044898391</v>
       </c>
       <c r="H40" t="n">
-        <v>16.61966118100571</v>
+        <v>16.6196611810057</v>
       </c>
       <c r="I40" t="n">
-        <v>56.21455949567164</v>
+        <v>56.21455949567162</v>
       </c>
       <c r="J40" t="n">
-        <v>132.1585940743163</v>
+        <v>132.1585940743162</v>
       </c>
       <c r="K40" t="n">
         <v>217.177167580013</v>
@@ -34059,13 +34059,13 @@
         <v>277.9120030206208</v>
       </c>
       <c r="M40" t="n">
-        <v>293.0192410471178</v>
+        <v>293.0192410471177</v>
       </c>
       <c r="N40" t="n">
         <v>286.051898425224</v>
       </c>
       <c r="O40" t="n">
-        <v>264.2152270370927</v>
+        <v>264.2152270370926</v>
       </c>
       <c r="P40" t="n">
         <v>226.0817713211653</v>
@@ -34074,16 +34074,16 @@
         <v>156.5272997323553</v>
       </c>
       <c r="R40" t="n">
-        <v>84.04994294606765</v>
+        <v>84.04994294606762</v>
       </c>
       <c r="S40" t="n">
         <v>32.57657513700195</v>
       </c>
       <c r="T40" t="n">
-        <v>7.986953737293124</v>
+        <v>7.986953737293122</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1019611115399124</v>
+        <v>0.1019611115399123</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L2" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="M2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O2" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M3" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>26.47527676494939</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L5" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M5" t="n">
-        <v>27.59002526031568</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N5" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>26.47527676494939</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031568</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N7" t="n">
-        <v>27.59002526031568</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="Q9" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="P9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>634.146000564544</v>
       </c>
       <c r="L11" t="n">
-        <v>421.8576484601079</v>
+        <v>839.5188630105583</v>
       </c>
       <c r="M11" t="n">
-        <v>501.3872479302748</v>
+        <v>950.9007814231073</v>
       </c>
       <c r="N11" t="n">
-        <v>639.1618412677036</v>
+        <v>514.1606302898874</v>
       </c>
       <c r="O11" t="n">
-        <v>852.8375237105353</v>
+        <v>472.0373424477899</v>
       </c>
       <c r="P11" t="n">
-        <v>689.8221631636552</v>
+        <v>606.4802178938196</v>
       </c>
       <c r="Q11" t="n">
-        <v>440.0259386495407</v>
+        <v>227.710947989636</v>
       </c>
       <c r="R11" t="n">
-        <v>111.9022020179189</v>
+        <v>46.18578214493647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>83.81803768011989</v>
+        <v>209.9090730205287</v>
       </c>
       <c r="K12" t="n">
         <v>222.2026441348579</v>
       </c>
       <c r="L12" t="n">
-        <v>519.4806959461072</v>
+        <v>345.569322160039</v>
       </c>
       <c r="M12" t="n">
         <v>422.8154916020455</v>
@@ -35504,7 +35504,7 @@
         <v>387.9008459329814</v>
       </c>
       <c r="P12" t="n">
-        <v>291.796277063196</v>
+        <v>339.6166155088555</v>
       </c>
       <c r="Q12" t="n">
         <v>144.6346529669879</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384040999</v>
       </c>
       <c r="K14" t="n">
         <v>634.146000564544</v>
@@ -35653,10 +35653,10 @@
         <v>421.8576484601079</v>
       </c>
       <c r="M14" t="n">
-        <v>501.3872479302748</v>
+        <v>909.193763010652</v>
       </c>
       <c r="N14" t="n">
-        <v>752.8705301981915</v>
+        <v>514.1606302898874</v>
       </c>
       <c r="O14" t="n">
         <v>852.8375237105353</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K15" t="n">
         <v>222.2026441348579</v>
@@ -35738,13 +35738,13 @@
         <v>448.5603463215734</v>
       </c>
       <c r="O15" t="n">
-        <v>387.9008459329814</v>
+        <v>561.8122197190495</v>
       </c>
       <c r="P15" t="n">
         <v>291.796277063196</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.4549914126477</v>
+        <v>144.6346529669879</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K17" t="n">
-        <v>310.0005879933793</v>
+        <v>634.146000564544</v>
       </c>
       <c r="L17" t="n">
-        <v>547.3660365275925</v>
+        <v>745.1677137069661</v>
       </c>
       <c r="M17" t="n">
-        <v>501.3872479302748</v>
+        <v>950.9007814231073</v>
       </c>
       <c r="N17" t="n">
-        <v>951.5075547018716</v>
+        <v>514.1606302898874</v>
       </c>
       <c r="O17" t="n">
         <v>852.8375237105353</v>
       </c>
       <c r="P17" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921725</v>
       </c>
       <c r="Q17" t="n">
-        <v>440.0259386495407</v>
+        <v>227.710947989636</v>
       </c>
       <c r="R17" t="n">
         <v>111.9022020179189</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K18" t="n">
         <v>222.2026441348579</v>
@@ -35972,7 +35972,7 @@
         <v>422.8154916020455</v>
       </c>
       <c r="N18" t="n">
-        <v>448.5603463215734</v>
+        <v>622.4717201076417</v>
       </c>
       <c r="O18" t="n">
         <v>387.9008459329814</v>
@@ -35981,7 +35981,7 @@
         <v>291.796277063196</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.4549914126477</v>
+        <v>144.6346529669879</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,22 +36121,22 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K20" t="n">
-        <v>634.146000564544</v>
+        <v>310.0005879933793</v>
       </c>
       <c r="L20" t="n">
-        <v>660.567548368412</v>
+        <v>839.5188630105583</v>
       </c>
       <c r="M20" t="n">
-        <v>501.3872479302748</v>
+        <v>950.9007814231073</v>
       </c>
       <c r="N20" t="n">
-        <v>514.1606302898874</v>
+        <v>531.6399028975549</v>
       </c>
       <c r="O20" t="n">
         <v>852.8375237105353</v>
       </c>
       <c r="P20" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921725</v>
       </c>
       <c r="Q20" t="n">
         <v>440.0259386495407</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K21" t="n">
-        <v>270.0229825805175</v>
+        <v>222.2026441348579</v>
       </c>
       <c r="L21" t="n">
-        <v>345.569322160039</v>
+        <v>519.4806959461073</v>
       </c>
       <c r="M21" t="n">
         <v>422.8154916020455</v>
@@ -36358,22 +36358,22 @@
         <v>341.7412535761737</v>
       </c>
       <c r="K23" t="n">
-        <v>634.146000564544</v>
+        <v>310.0005879933793</v>
       </c>
       <c r="L23" t="n">
-        <v>421.8576484601079</v>
+        <v>839.5188630105583</v>
       </c>
       <c r="M23" t="n">
-        <v>950.9007814231073</v>
+        <v>531.0331296187909</v>
       </c>
       <c r="N23" t="n">
-        <v>514.1606302898874</v>
+        <v>951.5075547018716</v>
       </c>
       <c r="O23" t="n">
-        <v>642.033890126007</v>
+        <v>852.8375237105353</v>
       </c>
       <c r="P23" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921725</v>
       </c>
       <c r="Q23" t="n">
         <v>440.0259386495407</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>83.81803768011989</v>
+        <v>209.9090730205287</v>
       </c>
       <c r="K24" t="n">
         <v>222.2026441348579</v>
       </c>
       <c r="L24" t="n">
-        <v>345.569322160039</v>
+        <v>355.1118796757963</v>
       </c>
       <c r="M24" t="n">
         <v>422.8154916020455</v>
@@ -36452,13 +36452,13 @@
         <v>387.9008459329814</v>
       </c>
       <c r="P24" t="n">
-        <v>465.7076508492643</v>
+        <v>291.796277063196</v>
       </c>
       <c r="Q24" t="n">
         <v>144.6346529669879</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>38.27778092990231</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>172.6446384040999</v>
+        <v>341.7412535761737</v>
       </c>
       <c r="K26" t="n">
-        <v>337.2609618940244</v>
+        <v>310.0005879933793</v>
       </c>
       <c r="L26" t="n">
         <v>839.5188630105583</v>
@@ -36604,19 +36604,19 @@
         <v>950.9007814231073</v>
       </c>
       <c r="N26" t="n">
-        <v>951.5075547018716</v>
+        <v>590.6413759888194</v>
       </c>
       <c r="O26" t="n">
-        <v>852.8375237105353</v>
+        <v>472.0373424477899</v>
       </c>
       <c r="P26" t="n">
-        <v>368.0234549921725</v>
+        <v>689.8221631636552</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.710947989636</v>
+        <v>440.0259386495407</v>
       </c>
       <c r="R26" t="n">
-        <v>46.18578214493647</v>
+        <v>111.9022020179189</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K27" t="n">
         <v>222.2026441348579</v>
@@ -36686,16 +36686,16 @@
         <v>448.5603463215734</v>
       </c>
       <c r="O27" t="n">
-        <v>387.9008459329814</v>
+        <v>523.5344387891473</v>
       </c>
       <c r="P27" t="n">
         <v>291.796277063196</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.4549914126477</v>
+        <v>144.6346529669879</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>38.27778092990231</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>172.6446384040999</v>
+        <v>341.7412535761737</v>
       </c>
       <c r="K29" t="n">
-        <v>310.0005879933793</v>
+        <v>634.146000564544</v>
       </c>
       <c r="L29" t="n">
         <v>839.5188630105583</v>
       </c>
       <c r="M29" t="n">
-        <v>950.9007814231073</v>
+        <v>501.3872479302748</v>
       </c>
       <c r="N29" t="n">
-        <v>951.5075547018716</v>
+        <v>514.1606302898874</v>
       </c>
       <c r="O29" t="n">
         <v>852.8375237105353</v>
       </c>
       <c r="P29" t="n">
-        <v>368.0234549921725</v>
+        <v>689.8221631636552</v>
       </c>
       <c r="Q29" t="n">
-        <v>254.9713218902842</v>
+        <v>261.0746240073947</v>
       </c>
       <c r="R29" t="n">
-        <v>46.18578214493647</v>
+        <v>111.9022020179189</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K30" t="n">
         <v>222.2026441348579</v>
@@ -36929,10 +36929,10 @@
         <v>291.796277063196</v>
       </c>
       <c r="Q30" t="n">
-        <v>192.4549914126477</v>
+        <v>280.2682458231542</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>38.27778092990231</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384040999</v>
       </c>
       <c r="K32" t="n">
-        <v>634.146000564544</v>
+        <v>443.2428659588832</v>
       </c>
       <c r="L32" t="n">
-        <v>435.7518155942287</v>
+        <v>839.5188630105583</v>
       </c>
       <c r="M32" t="n">
         <v>501.3872479302748</v>
@@ -37084,13 +37084,13 @@
         <v>852.8375237105353</v>
       </c>
       <c r="P32" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921725</v>
       </c>
       <c r="Q32" t="n">
-        <v>227.710947989636</v>
+        <v>440.0259386495407</v>
       </c>
       <c r="R32" t="n">
-        <v>46.18578214493647</v>
+        <v>111.9022020179189</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K33" t="n">
         <v>222.2026441348579</v>
@@ -37163,10 +37163,10 @@
         <v>387.9008459329814</v>
       </c>
       <c r="P33" t="n">
-        <v>291.796277063196</v>
+        <v>465.7076508492643</v>
       </c>
       <c r="Q33" t="n">
-        <v>192.4549914126477</v>
+        <v>144.6346529669879</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.07919826024839</v>
+        <v>43.07919826024852</v>
       </c>
       <c r="K34" t="n">
-        <v>199.1874600567351</v>
+        <v>199.1874600567352</v>
       </c>
       <c r="L34" t="n">
-        <v>309.7818125835419</v>
+        <v>309.781812583542</v>
       </c>
       <c r="M34" t="n">
-        <v>336.8829023115633</v>
+        <v>336.8829023115634</v>
       </c>
       <c r="N34" t="n">
-        <v>334.4638551070575</v>
+        <v>334.4638551070576</v>
       </c>
       <c r="O34" t="n">
-        <v>293.0801392537373</v>
+        <v>293.0801392537374</v>
       </c>
       <c r="P34" t="n">
-        <v>227.6401148886637</v>
+        <v>227.6401148886638</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.64504078326581</v>
+        <v>74.64504078326594</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384040999</v>
       </c>
       <c r="K35" t="n">
-        <v>634.146000564544</v>
+        <v>310.0005879933793</v>
       </c>
       <c r="L35" t="n">
         <v>421.8576484601079</v>
@@ -37315,19 +37315,19 @@
         <v>501.3872479302748</v>
       </c>
       <c r="N35" t="n">
-        <v>514.1606302898874</v>
+        <v>951.5075547018716</v>
       </c>
       <c r="O35" t="n">
-        <v>472.0373424477899</v>
+        <v>641.6913684990991</v>
       </c>
       <c r="P35" t="n">
         <v>689.8221631636552</v>
       </c>
       <c r="Q35" t="n">
-        <v>275.7534508367086</v>
+        <v>227.710947989636</v>
       </c>
       <c r="R35" t="n">
-        <v>111.9022020179189</v>
+        <v>46.18578214493647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>345.569322160039</v>
       </c>
       <c r="M36" t="n">
-        <v>596.7268653881139</v>
+        <v>422.8154916020455</v>
       </c>
       <c r="N36" t="n">
         <v>448.5603463215734</v>
@@ -37400,7 +37400,7 @@
         <v>387.9008459329814</v>
       </c>
       <c r="P36" t="n">
-        <v>291.796277063196</v>
+        <v>465.7076508492643</v>
       </c>
       <c r="Q36" t="n">
         <v>144.6346529669879</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.11137805431999</v>
+        <v>90.11137805432</v>
       </c>
       <c r="K37" t="n">
         <v>246.2196398508067</v>
@@ -37470,7 +37470,7 @@
         <v>356.8139923776135</v>
       </c>
       <c r="M37" t="n">
-        <v>383.9150821056348</v>
+        <v>383.9150821056349</v>
       </c>
       <c r="N37" t="n">
         <v>381.4960349011291</v>
@@ -37479,7 +37479,7 @@
         <v>340.1123190478089</v>
       </c>
       <c r="P37" t="n">
-        <v>274.6722946827353</v>
+        <v>274.6722946827354</v>
       </c>
       <c r="Q37" t="n">
         <v>121.6772205773374</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384040998</v>
       </c>
       <c r="K38" t="n">
-        <v>469.8735127517123</v>
+        <v>310.0005879933792</v>
       </c>
       <c r="L38" t="n">
-        <v>421.8576484601079</v>
+        <v>688.8287829421488</v>
       </c>
       <c r="M38" t="n">
-        <v>501.3872479302748</v>
+        <v>950.9007814231071</v>
       </c>
       <c r="N38" t="n">
         <v>514.1606302898874</v>
       </c>
       <c r="O38" t="n">
-        <v>472.0373424477899</v>
+        <v>472.0373424477897</v>
       </c>
       <c r="P38" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921724</v>
       </c>
       <c r="Q38" t="n">
-        <v>440.0259386495407</v>
+        <v>440.0259386495406</v>
       </c>
       <c r="R38" t="n">
-        <v>111.9022020179189</v>
+        <v>46.18578214493641</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011983</v>
       </c>
       <c r="K39" t="n">
-        <v>222.2026441348579</v>
+        <v>222.2026441348578</v>
       </c>
       <c r="L39" t="n">
-        <v>345.569322160039</v>
+        <v>345.5693221600388</v>
       </c>
       <c r="M39" t="n">
-        <v>422.8154916020455</v>
+        <v>422.8154916020453</v>
       </c>
       <c r="N39" t="n">
-        <v>448.5603463215734</v>
+        <v>448.5603463215733</v>
       </c>
       <c r="O39" t="n">
-        <v>387.9008459329814</v>
+        <v>387.9008459329813</v>
       </c>
       <c r="P39" t="n">
-        <v>291.796277063196</v>
+        <v>291.7962770631959</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.4549914126477</v>
+        <v>318.5460267530573</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.11137805431999</v>
+        <v>90.11137805431997</v>
       </c>
       <c r="K40" t="n">
         <v>246.2196398508067</v>
       </c>
       <c r="L40" t="n">
-        <v>356.8139923776135</v>
+        <v>356.8139923776134</v>
       </c>
       <c r="M40" t="n">
         <v>383.9150821056348</v>
@@ -37713,7 +37713,7 @@
         <v>381.4960349011291</v>
       </c>
       <c r="O40" t="n">
-        <v>340.1123190478089</v>
+        <v>340.1123190478088</v>
       </c>
       <c r="P40" t="n">
         <v>274.6722946827353</v>
@@ -37786,22 +37786,22 @@
         <v>421.8576484601079</v>
       </c>
       <c r="M41" t="n">
-        <v>950.9007814231073</v>
+        <v>501.3872479302748</v>
       </c>
       <c r="N41" t="n">
         <v>514.1606302898874</v>
       </c>
       <c r="O41" t="n">
-        <v>472.0373424477899</v>
+        <v>852.8375237105353</v>
       </c>
       <c r="P41" t="n">
         <v>689.8221631636552</v>
       </c>
       <c r="Q41" t="n">
-        <v>385.1983649600969</v>
+        <v>388.1952973172035</v>
       </c>
       <c r="R41" t="n">
-        <v>46.18578214493647</v>
+        <v>111.9022020179189</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>222.2026441348579</v>
       </c>
       <c r="L42" t="n">
-        <v>519.4806959461074</v>
+        <v>345.569322160039</v>
       </c>
       <c r="M42" t="n">
         <v>422.8154916020455</v>
@@ -37877,7 +37877,7 @@
         <v>291.796277063196</v>
       </c>
       <c r="Q42" t="n">
-        <v>144.6346529669879</v>
+        <v>318.5460267530564</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.11137805431999</v>
+        <v>90.11137805431994</v>
       </c>
       <c r="K43" t="n">
-        <v>246.2196398508067</v>
+        <v>246.2196398508066</v>
       </c>
       <c r="L43" t="n">
-        <v>356.8139923776135</v>
+        <v>356.8139923776134</v>
       </c>
       <c r="M43" t="n">
         <v>383.9150821056348</v>
@@ -37950,7 +37950,7 @@
         <v>381.4960349011291</v>
       </c>
       <c r="O43" t="n">
-        <v>340.1123190478089</v>
+        <v>340.1123190478088</v>
       </c>
       <c r="P43" t="n">
         <v>274.6722946827353</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>341.7412535761737</v>
+        <v>172.6446384040999</v>
       </c>
       <c r="K44" t="n">
         <v>310.0005879933793</v>
@@ -38023,19 +38023,19 @@
         <v>421.8576484601079</v>
       </c>
       <c r="M44" t="n">
-        <v>501.3872479302748</v>
+        <v>950.9007814231073</v>
       </c>
       <c r="N44" t="n">
-        <v>514.1606302898874</v>
+        <v>546.9301542961047</v>
       </c>
       <c r="O44" t="n">
-        <v>631.9102672061224</v>
+        <v>852.8375237105353</v>
       </c>
       <c r="P44" t="n">
-        <v>689.8221631636552</v>
+        <v>368.0234549921725</v>
       </c>
       <c r="Q44" t="n">
-        <v>440.0259386495407</v>
+        <v>227.710947989636</v>
       </c>
       <c r="R44" t="n">
         <v>111.9022020179189</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>209.9090730205287</v>
+        <v>83.81803768011989</v>
       </c>
       <c r="K45" t="n">
         <v>222.2026441348579</v>
       </c>
       <c r="L45" t="n">
-        <v>345.569322160039</v>
+        <v>519.4806959461073</v>
       </c>
       <c r="M45" t="n">
         <v>422.8154916020455</v>
@@ -38114,7 +38114,7 @@
         <v>291.796277063196</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.4549914126477</v>
+        <v>144.6346529669879</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.11137805431999</v>
+        <v>90.11137805431994</v>
       </c>
       <c r="K46" t="n">
-        <v>246.2196398508067</v>
+        <v>246.2196398508066</v>
       </c>
       <c r="L46" t="n">
-        <v>356.8139923776135</v>
+        <v>356.8139923776134</v>
       </c>
       <c r="M46" t="n">
         <v>383.9150821056348</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4960349011288</v>
+        <v>381.4960349011291</v>
       </c>
       <c r="O46" t="n">
-        <v>340.1123190478089</v>
+        <v>340.1123190478088</v>
       </c>
       <c r="P46" t="n">
-        <v>274.6722946827353</v>
+        <v>274.6722946827352</v>
       </c>
       <c r="Q46" t="n">
         <v>121.6772205773374</v>
